--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9884,7 +9884,9 @@
       <c r="D390" t="n">
         <v>448.97</v>
       </c>
-      <c r="E390" t="inlineStr"/>
+      <c r="E390" t="n">
+        <v>457.84</v>
+      </c>
       <c r="F390" t="n">
         <v>443.5566666666667</v>
       </c>
@@ -9910,6 +9912,214 @@
       <c r="G391" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>411.9266666666667</v>
+      </c>
+      <c r="C392" t="n">
+        <v>425.88</v>
+      </c>
+      <c r="D392" t="n">
+        <v>435.02</v>
+      </c>
+      <c r="E392" t="n">
+        <v>450.09</v>
+      </c>
+      <c r="F392" t="n">
+        <v>458.1433333333333</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>399.61</v>
+      </c>
+      <c r="D393" t="n">
+        <v>420.46</v>
+      </c>
+      <c r="E393" t="n">
+        <v>426.37</v>
+      </c>
+      <c r="F393" t="n">
+        <v>434.3933333333333</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="n">
+        <v>449.88</v>
+      </c>
+      <c r="D394" t="n">
+        <v>462.83</v>
+      </c>
+      <c r="E394" t="n">
+        <v>467.62</v>
+      </c>
+      <c r="F394" t="n">
+        <v>468.5366666666667</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>443.74</v>
+      </c>
+      <c r="D395" t="n">
+        <v>460.42</v>
+      </c>
+      <c r="E395" t="n">
+        <v>470.11</v>
+      </c>
+      <c r="F395" t="n">
+        <v>464.9833333333333</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>416.05</v>
+      </c>
+      <c r="C396" t="n">
+        <v>446.59</v>
+      </c>
+      <c r="D396" t="n">
+        <v>447.19</v>
+      </c>
+      <c r="E396" t="n">
+        <v>454.12</v>
+      </c>
+      <c r="F396" t="n">
+        <v>467.74</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>397.69</v>
+      </c>
+      <c r="C397" t="n">
+        <v>436.9</v>
+      </c>
+      <c r="D397" t="n">
+        <v>450.11</v>
+      </c>
+      <c r="E397" t="n">
+        <v>458.76</v>
+      </c>
+      <c r="F397" t="n">
+        <v>466.57</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="n">
+        <v>431.26</v>
+      </c>
+      <c r="D398" t="n">
+        <v>450.46</v>
+      </c>
+      <c r="E398" t="n">
+        <v>460.59</v>
+      </c>
+      <c r="F398" t="n">
+        <v>455.36</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>396.9366666666667</v>
+      </c>
+      <c r="C399" t="n">
+        <v>418.84</v>
+      </c>
+      <c r="D399" t="n">
+        <v>429.8</v>
+      </c>
+      <c r="E399" t="n">
+        <v>458.52</v>
+      </c>
+      <c r="F399" t="n">
+        <v>474.7133333333333</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9924,7 +10134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15292,6 +15502,86 @@
       </c>
       <c r="B536" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -15460,28 +15750,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.276372262500209</v>
+        <v>6.208931971720482</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6232405751187042</v>
+        <v>0.6243345338403776</v>
       </c>
       <c r="M2" t="n">
-        <v>29.27108528612787</v>
+        <v>29.08498111283603</v>
       </c>
       <c r="N2" t="n">
-        <v>1257.528595951772</v>
+        <v>1243.432999477777</v>
       </c>
       <c r="O2" t="n">
-        <v>35.46164965073921</v>
+        <v>35.26234534851272</v>
       </c>
       <c r="P2" t="n">
-        <v>267.3481430635972</v>
+        <v>268.0265069175072</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15537,28 +15827,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.525462909105262</v>
+        <v>6.593514544550263</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6392481271028965</v>
+        <v>0.652611479093838</v>
       </c>
       <c r="M3" t="n">
-        <v>22.64758814568661</v>
+        <v>22.49056305713971</v>
       </c>
       <c r="N3" t="n">
-        <v>1062.553574178473</v>
+        <v>1043.512390371637</v>
       </c>
       <c r="O3" t="n">
-        <v>32.59683380603818</v>
+        <v>32.30344239197483</v>
       </c>
       <c r="P3" t="n">
-        <v>253.8049903921413</v>
+        <v>253.0231919696912</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15614,28 +15904,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.415303898737118</v>
+        <v>5.551274118552689</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.757818529809251</v>
+        <v>0.7658238175168072</v>
       </c>
       <c r="M4" t="n">
-        <v>16.43794130308663</v>
+        <v>16.76433864003441</v>
       </c>
       <c r="N4" t="n">
-        <v>467.7081293470077</v>
+        <v>480.365709832528</v>
       </c>
       <c r="O4" t="n">
-        <v>21.62656073782902</v>
+        <v>21.91724685795476</v>
       </c>
       <c r="P4" t="n">
-        <v>278.6302636167438</v>
+        <v>277.2094386677692</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15691,28 +15981,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75407742637659</v>
+        <v>4.968661694695225</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7264515929606499</v>
+        <v>0.7326224215839113</v>
       </c>
       <c r="M5" t="n">
-        <v>15.89411644605561</v>
+        <v>16.63610519298902</v>
       </c>
       <c r="N5" t="n">
-        <v>430.6039941672728</v>
+        <v>466.9746248619642</v>
       </c>
       <c r="O5" t="n">
-        <v>20.75099983536391</v>
+        <v>21.60959566632296</v>
       </c>
       <c r="P5" t="n">
-        <v>294.2551322940646</v>
+        <v>292.0487389921267</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15768,28 +16058,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>4.792474077186413</v>
+        <v>5.021384620307433</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.763081461963002</v>
+        <v>0.7614856845059349</v>
       </c>
       <c r="M6" t="n">
-        <v>15.21473450698614</v>
+        <v>16.05841526008783</v>
       </c>
       <c r="N6" t="n">
-        <v>368.6855589373526</v>
+        <v>417.3933198110369</v>
       </c>
       <c r="O6" t="n">
-        <v>19.20118639400578</v>
+        <v>20.43020606384177</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9311571362906</v>
+        <v>290.5953287512588</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15826,7 +16116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28088,7 +28378,11 @@
           <t>-36.978934949811865,174.46786585593964</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-36.97825510644445,174.46756459749392</t>
+        </is>
+      </c>
       <c r="F390" t="inlineStr">
         <is>
           <t>-36.97752578465571,174.46751601425262</t>
@@ -28121,6 +28415,286 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-36.980253369240664,174.46867904295743</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-36.97958440169934,174.46832230348988</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-36.97890514231014,174.4680180955703</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-36.97823854691912,174.46764917439046</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-36.977556952020855,174.46735682921508</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-36.97952826845901,174.46860899617784</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-36.97887403119225,174.46817699214108</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-36.97818786371818,174.4679080340198</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-36.97750620523187,174.46761601410685</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-36.97963568384868,174.46806038363096</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-36.97896456481618,174.46771459837626</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-36.97827600341211,174.46745786685193</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-36.97757915935213,174.46724340615472</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-36.9796225642198,174.46812739149675</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-36.978959415323324,174.46774089930344</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-36.97828132379059,174.4674306930897</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-36.97757156699242,174.46728218389902</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-36.98026217995281,174.46863404334243</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-36.979628653954464,174.46809628850016</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-36.978931146428124,174.4678852815052</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-36.978247157879714,174.46760519440906</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-36.97757745712623,174.46725210022757</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-36.980222948293374,174.4688344134115</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-36.97960794882378,174.4682020386673</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-36.978937385685214,174.467853414846</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-36.978257072216415,174.46755455739523</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-36.977574957203366,174.46726486850952</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-36.97959589749745,174.46826358982037</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-36.9789381335408,174.46784959521185</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-36.97826098239075,174.4675345863278</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-36.97755100488221,174.4673872038843</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-36.9802213385631,174.46884263483673</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-36.97956935882725,174.468399133245</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-36.97889398848571,174.4680750626258</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-36.97825655940642,174.46755717655148</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-36.977592356923246,174.46717599979382</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -15595,7 +15595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15686,35 +15686,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15773,27 +15778,28 @@
       <c r="P2" t="n">
         <v>268.0265069175072</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.4731745112574 -36.97937308207142, 174.46313670368423 -36.981338390251565)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4731745112574</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.97937308207142</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4631367036842</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.98133839025157</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4681556074708</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.98035573616149</v>
       </c>
     </row>
@@ -15850,27 +15856,28 @@
       <c r="P3" t="n">
         <v>253.0231919696912</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.47297000981473 -36.978674305028875, 174.4629322577577 -36.980639606860635)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4729700098147</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.97867430502887</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4629322577577</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.98063960686063</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4679511337862</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.97965695594475</v>
       </c>
     </row>
@@ -15927,27 +15934,28 @@
       <c r="P4" t="n">
         <v>277.2094386677692</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.47276550837245 -36.97797552156896, 174.46272781183032 -36.979940817052764)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4727655083724</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.97797552156896</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4627278118303</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.97994081705276</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4677466601014</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.97895816931086</v>
       </c>
     </row>
@@ -16004,27 +16012,28 @@
       <c r="P5" t="n">
         <v>292.0487389921267</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.47256100693056 -36.97727673169178, 174.4625233659021 -36.97924202082775)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4725610069306</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.97727673169178</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4625233659021</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.97924202082775</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4675421864163</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.97825937625976</v>
       </c>
     </row>
@@ -16081,27 +16090,28 @@
       <c r="P6" t="n">
         <v>290.5953287512588</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.4723565054891 -36.976577935397394, 174.46231891997303 -36.97854321818566)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4723565054891</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.97657793539739</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.462318919973</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.97854321818566</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4673377127311</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.97756057679153</v>
       </c>
     </row>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10118,6 +10118,137 @@
         <v>474.7133333333333</v>
       </c>
       <c r="G399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>439.81</v>
+      </c>
+      <c r="D400" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="E400" t="n">
+        <v>462.43</v>
+      </c>
+      <c r="F400" t="n">
+        <v>474.7066666666667</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>424.2066666666667</v>
+      </c>
+      <c r="C401" t="n">
+        <v>425.34</v>
+      </c>
+      <c r="D401" t="n">
+        <v>434.29</v>
+      </c>
+      <c r="E401" t="n">
+        <v>448.36</v>
+      </c>
+      <c r="F401" t="n">
+        <v>455.5133333333333</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>401.43</v>
+      </c>
+      <c r="D402" t="n">
+        <v>425.51</v>
+      </c>
+      <c r="E402" t="n">
+        <v>437.37</v>
+      </c>
+      <c r="F402" t="n">
+        <v>438.86</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>479.79</v>
+      </c>
+      <c r="C403" t="n">
+        <v>460.92</v>
+      </c>
+      <c r="D403" t="n">
+        <v>467.25</v>
+      </c>
+      <c r="E403" t="n">
+        <v>477.1</v>
+      </c>
+      <c r="F403" t="n">
+        <v>477.15</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>487.6333333333333</v>
+      </c>
+      <c r="C404" t="n">
+        <v>461.49</v>
+      </c>
+      <c r="D404" t="n">
+        <v>475</v>
+      </c>
+      <c r="E404" t="n">
+        <v>478.74</v>
+      </c>
+      <c r="F404" t="n">
+        <v>473.5066666666667</v>
+      </c>
+      <c r="G404" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10134,7 +10265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15582,6 +15713,66 @@
       </c>
       <c r="B544" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15946,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.208931971720482</v>
+        <v>6.299735949904801</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6243345338403776</v>
+        <v>0.6314783158127639</v>
       </c>
       <c r="M2" t="n">
-        <v>29.08498111283603</v>
+        <v>29.24736385255754</v>
       </c>
       <c r="N2" t="n">
-        <v>1243.432999477777</v>
+        <v>1255.302405756416</v>
       </c>
       <c r="O2" t="n">
-        <v>35.26234534851272</v>
+        <v>35.43024704622332</v>
       </c>
       <c r="P2" t="n">
-        <v>268.0265069175072</v>
+        <v>267.1020365368818</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15833,28 +16024,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.593514544550263</v>
+        <v>6.648086362320288</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.652611479093838</v>
+        <v>0.6599409238994177</v>
       </c>
       <c r="M3" t="n">
-        <v>22.49056305713971</v>
+        <v>22.51984179798167</v>
       </c>
       <c r="N3" t="n">
-        <v>1043.512390371637</v>
+        <v>1038.837010492872</v>
       </c>
       <c r="O3" t="n">
-        <v>32.30344239197483</v>
+        <v>32.23099456257705</v>
       </c>
       <c r="P3" t="n">
-        <v>253.0231919696912</v>
+        <v>252.3893168283269</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15911,28 +16102,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.551274118552689</v>
+        <v>5.64464568779293</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7658238175168072</v>
+        <v>0.7689947885905219</v>
       </c>
       <c r="M4" t="n">
-        <v>16.76433864003441</v>
+        <v>17.00360941218787</v>
       </c>
       <c r="N4" t="n">
-        <v>480.365709832528</v>
+        <v>494.0678306943579</v>
       </c>
       <c r="O4" t="n">
-        <v>21.91724685795476</v>
+        <v>22.22763664212545</v>
       </c>
       <c r="P4" t="n">
-        <v>277.2094386677692</v>
+        <v>276.2230859459956</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15989,28 +16180,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>4.968661694695225</v>
+        <v>5.086824452549313</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7326224215839113</v>
+        <v>0.7350534243305458</v>
       </c>
       <c r="M5" t="n">
-        <v>16.63610519298902</v>
+        <v>17.09864302220449</v>
       </c>
       <c r="N5" t="n">
-        <v>466.9746248619642</v>
+        <v>489.5449369398451</v>
       </c>
       <c r="O5" t="n">
-        <v>21.60959566632296</v>
+        <v>22.12566240680367</v>
       </c>
       <c r="P5" t="n">
-        <v>292.0487389921267</v>
+        <v>290.8189543666248</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16067,28 +16258,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.021384620307433</v>
+        <v>5.155424914924822</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7614856845059349</v>
+        <v>0.7612293586511609</v>
       </c>
       <c r="M6" t="n">
-        <v>16.05841526008783</v>
+        <v>16.59170226268218</v>
       </c>
       <c r="N6" t="n">
-        <v>417.3933198110369</v>
+        <v>446.2903336744377</v>
       </c>
       <c r="O6" t="n">
-        <v>20.43020606384177</v>
+        <v>21.12558481260194</v>
       </c>
       <c r="P6" t="n">
-        <v>290.5953287512588</v>
+        <v>289.2127815147277</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16126,7 +16317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28705,6 +28896,183 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-36.979614166783016,174.46817028088353</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-36.97894601806808,174.4678093253496</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-36.97826491392882,174.46751450612666</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-36.97759234267872,174.4671760725476</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-36.98027960901605,174.4685450262869</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-36.97958324784441,174.46832819668248</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-36.97890358248574,174.46802606222857</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-36.97823485039759,174.46766805413114</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-36.977551332509215,174.46738553054934</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-36.979532157422724,174.46858913396557</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-36.978884821816685,174.46812188036515</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-36.978211367801435,174.46778798954864</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-36.97751574923205,174.46756726918645</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-36.98039837703156,174.46793842138834</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-36.97965927344571,174.46793990037153</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-36.9789740090993,174.46766636181133</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-36.978296259278046,174.46735441009739</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-36.977597563294104,174.4671494082869</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-36.980415136073844,174.46785282354773</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-36.97966049138357,174.46793367976633</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-36.978990568598775,174.46758178409362</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-36.978299763448334,174.46733651250952</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-36.977589778663535,174.46718916822675</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10249,6 +10249,58 @@
         <v>473.5066666666667</v>
       </c>
       <c r="G404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>468.05</v>
+      </c>
+      <c r="C405" t="n">
+        <v>441.9500000000001</v>
+      </c>
+      <c r="D405" t="n">
+        <v>447.8</v>
+      </c>
+      <c r="E405" t="n">
+        <v>456.01</v>
+      </c>
+      <c r="F405" t="n">
+        <v>445.82</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>412.31</v>
+      </c>
+      <c r="D406" t="n">
+        <v>415.61</v>
+      </c>
+      <c r="E406" t="n">
+        <v>418.42</v>
+      </c>
+      <c r="F406" t="n">
+        <v>424.5533333333333</v>
+      </c>
+      <c r="G406" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10265,7 +10317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15773,6 +15825,36 @@
       </c>
       <c r="B550" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -15946,28 +16028,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.299735949904801</v>
+        <v>6.331574864395815</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6314783158127639</v>
+        <v>0.6344294170801827</v>
       </c>
       <c r="M2" t="n">
-        <v>29.24736385255754</v>
+        <v>29.30473467063092</v>
       </c>
       <c r="N2" t="n">
-        <v>1255.302405756416</v>
+        <v>1256.563221305499</v>
       </c>
       <c r="O2" t="n">
-        <v>35.43024704622332</v>
+        <v>35.44803550699953</v>
       </c>
       <c r="P2" t="n">
-        <v>267.1020365368818</v>
+        <v>266.7763449857163</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16024,28 +16106,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.648086362320288</v>
+        <v>6.653680795577384</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6599409238994177</v>
+        <v>0.6625285152034397</v>
       </c>
       <c r="M3" t="n">
-        <v>22.51984179798167</v>
+        <v>22.46665244202668</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.837010492872</v>
+        <v>1033.306097097427</v>
       </c>
       <c r="O3" t="n">
-        <v>32.23099456257705</v>
+        <v>32.1450788939369</v>
       </c>
       <c r="P3" t="n">
-        <v>252.3893168283269</v>
+        <v>252.3240500370585</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16102,28 +16184,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.64464568779293</v>
+        <v>5.656961785446827</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K4" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7689947885905219</v>
+        <v>0.7709048077737495</v>
       </c>
       <c r="M4" t="n">
-        <v>17.00360941218787</v>
+        <v>16.99793039260145</v>
       </c>
       <c r="N4" t="n">
-        <v>494.0678306943579</v>
+        <v>493.3281297339419</v>
       </c>
       <c r="O4" t="n">
-        <v>22.22763664212545</v>
+        <v>22.21099119206394</v>
       </c>
       <c r="P4" t="n">
-        <v>276.2230859459956</v>
+        <v>276.0922186591154</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16180,28 +16262,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.086824452549313</v>
+        <v>5.104701671700726</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7350534243305458</v>
+        <v>0.7371022409344705</v>
       </c>
       <c r="M5" t="n">
-        <v>17.09864302220449</v>
+        <v>17.12331219458583</v>
       </c>
       <c r="N5" t="n">
-        <v>489.5449369398451</v>
+        <v>490.2508558270102</v>
       </c>
       <c r="O5" t="n">
-        <v>22.12566240680367</v>
+        <v>22.14160915170824</v>
       </c>
       <c r="P5" t="n">
-        <v>290.8189543666248</v>
+        <v>290.6317432706482</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16258,28 +16340,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.155424914924822</v>
+        <v>5.171676128644204</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7612293586511609</v>
+        <v>0.7636652243432606</v>
       </c>
       <c r="M6" t="n">
-        <v>16.59170226268218</v>
+        <v>16.58014065605258</v>
       </c>
       <c r="N6" t="n">
-        <v>446.2903336744377</v>
+        <v>445.3409335262565</v>
       </c>
       <c r="O6" t="n">
-        <v>21.12558481260194</v>
+        <v>21.10310246210866</v>
       </c>
       <c r="P6" t="n">
-        <v>289.2127815147277</v>
+        <v>289.0439987808696</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16317,7 +16399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29073,6 +29155,76 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-36.980373291772324,174.46806654523908</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-36.979618739434976,174.46814692635863</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-36.97893244983527,174.4678786244296</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-36.978251196265134,174.46758456855812</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-36.977530620739195,174.46749131438943</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-36.979555405664776,174.46847039717966</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-36.97886366789548,174.468229921257</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-36.97817087660157,174.4679947933847</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-36.97748517987217,174.4677233983937</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10287,7 +10287,9 @@
           <t>2025-05-21 22:11:40+00:00</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr"/>
+      <c r="B406" t="n">
+        <v>402.4066666666667</v>
+      </c>
       <c r="C406" t="n">
         <v>412.31</v>
       </c>
@@ -10303,6 +10305,33 @@
       <c r="G406" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>418.0733333333333</v>
+      </c>
+      <c r="C407" t="n">
+        <v>418.88</v>
+      </c>
+      <c r="D407" t="n">
+        <v>423</v>
+      </c>
+      <c r="E407" t="n">
+        <v>418.43</v>
+      </c>
+      <c r="F407" t="n">
+        <v>402.6366666666667</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15855,6 +15884,16 @@
       </c>
       <c r="B553" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -16028,28 +16067,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.331574864395815</v>
+        <v>6.301463880580693</v>
       </c>
       <c r="J2" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6344294170801827</v>
+        <v>0.63521860264604</v>
       </c>
       <c r="M2" t="n">
-        <v>29.30473467063092</v>
+        <v>29.19966655558857</v>
       </c>
       <c r="N2" t="n">
-        <v>1256.563221305499</v>
+        <v>1249.173680892347</v>
       </c>
       <c r="O2" t="n">
-        <v>35.44803550699953</v>
+        <v>35.34365121054059</v>
       </c>
       <c r="P2" t="n">
-        <v>266.7763449857163</v>
+        <v>267.0849064467137</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16106,28 +16145,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.653680795577384</v>
+        <v>6.650805001815778</v>
       </c>
       <c r="J3" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6625285152034397</v>
+        <v>0.6635950561804027</v>
       </c>
       <c r="M3" t="n">
-        <v>22.46665244202668</v>
+        <v>22.40440959985619</v>
       </c>
       <c r="N3" t="n">
-        <v>1033.306097097427</v>
+        <v>1029.809380923459</v>
       </c>
       <c r="O3" t="n">
-        <v>32.1450788939369</v>
+        <v>32.0906431989678</v>
       </c>
       <c r="P3" t="n">
-        <v>252.3240500370585</v>
+        <v>252.3577566655717</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16184,28 +16223,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.656961785446827</v>
+        <v>5.657849725259406</v>
       </c>
       <c r="J4" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7709048077737495</v>
+        <v>0.7719335771135848</v>
       </c>
       <c r="M4" t="n">
-        <v>16.99793039260145</v>
+        <v>16.95023196829252</v>
       </c>
       <c r="N4" t="n">
-        <v>493.3281297339419</v>
+        <v>491.8128984077975</v>
       </c>
       <c r="O4" t="n">
-        <v>22.21099119206394</v>
+        <v>22.17685501616037</v>
       </c>
       <c r="P4" t="n">
-        <v>276.0922186591154</v>
+        <v>276.0827486010325</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16262,28 +16301,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.104701671700726</v>
+        <v>5.102821729339663</v>
       </c>
       <c r="J5" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7371022409344705</v>
+        <v>0.7380093697474308</v>
       </c>
       <c r="M5" t="n">
-        <v>17.12331219458583</v>
+        <v>17.08019219554976</v>
       </c>
       <c r="N5" t="n">
-        <v>490.2508558270102</v>
+        <v>488.803667953507</v>
       </c>
       <c r="O5" t="n">
-        <v>22.14160915170824</v>
+        <v>22.10890472080214</v>
       </c>
       <c r="P5" t="n">
-        <v>290.6317432706482</v>
+        <v>290.6515001319439</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16340,28 +16379,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.171676128644204</v>
+        <v>5.160341537580772</v>
       </c>
       <c r="J6" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7636652243432606</v>
+        <v>0.7634232609543744</v>
       </c>
       <c r="M6" t="n">
-        <v>16.58014065605258</v>
+        <v>16.58377726458914</v>
       </c>
       <c r="N6" t="n">
-        <v>445.3409335262565</v>
+        <v>445.0917691083074</v>
       </c>
       <c r="O6" t="n">
-        <v>21.10310246210866</v>
+        <v>21.09719813407239</v>
       </c>
       <c r="P6" t="n">
-        <v>289.0439987808696</v>
+        <v>289.1621276415528</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16399,7 +16438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29198,7 +29237,11 @@
           <t>2025-05-21 22:11:40+00:00</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr"/>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-36.98023302690153,174.46878293855062</t>
+        </is>
+      </c>
       <c r="C406" t="inlineStr">
         <is>
           <t>-36.979555405664776,174.46847039717966</t>
@@ -29222,6 +29265,43 @@
       <c r="G406" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-36.9802665033923,174.46861196187822</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-36.97956944429825,174.46839869671237</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-36.97887945855898,174.46814927255681</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-36.978170897969036,174.46799468425343</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-36.97743834966959,174.4679625755705</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10332,6 +10332,33 @@
       <c r="G407" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>454.57</v>
+      </c>
+      <c r="C408" t="n">
+        <v>445.69</v>
+      </c>
+      <c r="D408" t="n">
+        <v>449.24</v>
+      </c>
+      <c r="E408" t="n">
+        <v>440.45</v>
+      </c>
+      <c r="F408" t="n">
+        <v>430.19</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10346,7 +10373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15894,6 +15921,16 @@
       </c>
       <c r="B554" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -16067,28 +16104,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.301463880580693</v>
+        <v>6.321401936111701</v>
       </c>
       <c r="J2" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.63521860264604</v>
+        <v>0.6379663958872802</v>
       </c>
       <c r="M2" t="n">
-        <v>29.19966655558857</v>
+        <v>29.19197760954743</v>
       </c>
       <c r="N2" t="n">
-        <v>1249.173680892347</v>
+        <v>1246.509131162214</v>
       </c>
       <c r="O2" t="n">
-        <v>35.34365121054059</v>
+        <v>35.3059362028854</v>
       </c>
       <c r="P2" t="n">
-        <v>267.0849064467137</v>
+        <v>266.8799819375435</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16145,28 +16182,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.650805001815778</v>
+        <v>6.665253581701119</v>
       </c>
       <c r="J3" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6635950561804027</v>
+        <v>0.66545702720337</v>
       </c>
       <c r="M3" t="n">
-        <v>22.40440959985619</v>
+        <v>22.40322372173044</v>
       </c>
       <c r="N3" t="n">
-        <v>1029.809380923459</v>
+        <v>1027.963315524364</v>
       </c>
       <c r="O3" t="n">
-        <v>32.0906431989678</v>
+        <v>32.06186699997933</v>
       </c>
       <c r="P3" t="n">
-        <v>252.3577566655717</v>
+        <v>252.188215551131</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16223,28 +16260,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.657849725259406</v>
+        <v>5.673556243090697</v>
       </c>
       <c r="J4" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7719335771135848</v>
+        <v>0.7730395159830343</v>
       </c>
       <c r="M4" t="n">
-        <v>16.95023196829252</v>
+        <v>16.98189386599906</v>
       </c>
       <c r="N4" t="n">
-        <v>491.8128984077975</v>
+        <v>492.6329946800826</v>
       </c>
       <c r="O4" t="n">
-        <v>22.17685501616037</v>
+        <v>22.19533722834782</v>
       </c>
       <c r="P4" t="n">
-        <v>276.0827486010325</v>
+        <v>275.9150428997089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16301,28 +16338,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.102821729339663</v>
+        <v>5.113130423625877</v>
       </c>
       <c r="J5" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7380093697474308</v>
+        <v>0.7394335734975341</v>
       </c>
       <c r="M5" t="n">
-        <v>17.08019219554976</v>
+        <v>17.09270458146838</v>
       </c>
       <c r="N5" t="n">
-        <v>488.803667953507</v>
+        <v>488.3614191122885</v>
       </c>
       <c r="O5" t="n">
-        <v>22.10890472080214</v>
+        <v>22.09890085756051</v>
       </c>
       <c r="P5" t="n">
-        <v>290.6515001319439</v>
+        <v>290.543038428954</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16379,28 +16416,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.160341537580772</v>
+        <v>5.165197782270256</v>
       </c>
       <c r="J6" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7634232609543744</v>
+        <v>0.764700613242548</v>
       </c>
       <c r="M6" t="n">
-        <v>16.58377726458914</v>
+        <v>16.55892459210747</v>
       </c>
       <c r="N6" t="n">
-        <v>445.0917691083074</v>
+        <v>443.8694773529516</v>
       </c>
       <c r="O6" t="n">
-        <v>21.09719813407239</v>
+        <v>21.06821011270183</v>
       </c>
       <c r="P6" t="n">
-        <v>289.1621276415528</v>
+        <v>289.1114554855623</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16438,7 +16475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29305,6 +29342,43 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-36.98034448842717,174.46821365837582</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-36.97962673088124,174.46810611049966</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-36.97893552672936,174.46786290936492</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-36.978217948923245,174.46775437708277</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-36.9774972238823,174.46766188524782</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10359,6 +10359,52 @@
       <c r="G408" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>434.94</v>
+      </c>
+      <c r="C409" t="n">
+        <v>435.22</v>
+      </c>
+      <c r="D409" t="n">
+        <v>434.81</v>
+      </c>
+      <c r="E409" t="n">
+        <v>424.33</v>
+      </c>
+      <c r="F409" t="n">
+        <v>399.62</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>399.1766666666667</v>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15931,6 +15977,26 @@
       </c>
       <c r="B555" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -16104,28 +16170,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.321401936111701</v>
+        <v>6.301743672117801</v>
       </c>
       <c r="J2" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6379663958872802</v>
+        <v>0.6392957277144786</v>
       </c>
       <c r="M2" t="n">
-        <v>29.19197760954743</v>
+        <v>29.08730601388397</v>
       </c>
       <c r="N2" t="n">
-        <v>1246.509131162214</v>
+        <v>1239.916347175017</v>
       </c>
       <c r="O2" t="n">
-        <v>35.3059362028854</v>
+        <v>35.21244591298674</v>
       </c>
       <c r="P2" t="n">
-        <v>266.8799819375435</v>
+        <v>267.0831281192617</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16182,28 +16248,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.665253581701119</v>
+        <v>6.6726527389387</v>
       </c>
       <c r="J3" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.66545702720337</v>
+        <v>0.6671014768096106</v>
       </c>
       <c r="M3" t="n">
-        <v>22.40322372173044</v>
+        <v>22.36510753666477</v>
       </c>
       <c r="N3" t="n">
-        <v>1027.963315524364</v>
+        <v>1024.891427032645</v>
       </c>
       <c r="O3" t="n">
-        <v>32.06186699997933</v>
+        <v>32.01392551738455</v>
       </c>
       <c r="P3" t="n">
-        <v>252.188215551131</v>
+        <v>252.1013066391683</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16260,28 +16326,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.673556243090697</v>
+        <v>5.680824170800336</v>
       </c>
       <c r="J4" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7730395159830343</v>
+        <v>0.7742631219892447</v>
       </c>
       <c r="M4" t="n">
-        <v>16.98189386599906</v>
+        <v>16.96838717372278</v>
       </c>
       <c r="N4" t="n">
-        <v>492.6329946800826</v>
+        <v>491.6265232700291</v>
       </c>
       <c r="O4" t="n">
-        <v>22.19533722834782</v>
+        <v>22.17265259886667</v>
       </c>
       <c r="P4" t="n">
-        <v>275.9150428997089</v>
+        <v>275.8373616182848</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16338,28 +16404,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.113130423625877</v>
+        <v>5.114341818834406</v>
       </c>
       <c r="J5" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7394335734975341</v>
+        <v>0.7405605207332612</v>
       </c>
       <c r="M5" t="n">
-        <v>17.09270458146838</v>
+        <v>17.0488542649192</v>
       </c>
       <c r="N5" t="n">
-        <v>488.3614191122885</v>
+        <v>486.9092347878093</v>
       </c>
       <c r="O5" t="n">
-        <v>22.09890085756051</v>
+        <v>22.06601991270309</v>
       </c>
       <c r="P5" t="n">
-        <v>290.543038428954</v>
+        <v>290.5302800078633</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16416,28 +16482,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.165197782270256</v>
+        <v>5.152202846773948</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>0.764700613242548</v>
+        <v>0.7641574141113667</v>
       </c>
       <c r="M6" t="n">
-        <v>16.55892459210747</v>
+        <v>16.57200248531195</v>
       </c>
       <c r="N6" t="n">
-        <v>443.8694773529516</v>
+        <v>444.0455895971098</v>
       </c>
       <c r="O6" t="n">
-        <v>21.06821011270183</v>
+        <v>21.07238927120297</v>
       </c>
       <c r="P6" t="n">
-        <v>289.1114554855623</v>
+        <v>289.2471925412351</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16475,7 +16541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29379,6 +29445,64 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-36.98030254376793,174.46842788894398</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-36.979604359070294,174.46822037305546</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-36.97890469359359,174.46802038734876</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-36.97818350476594,174.46793029680413</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-36.977431903802156,174.46799549651138</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-36.98022612501605,174.46881818882792</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10398,11 +10398,88 @@
       <c r="B410" t="n">
         <v>399.1766666666667</v>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>502.6</v>
+      </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
+      <c r="F410" t="n">
+        <v>464.0233333333333</v>
+      </c>
       <c r="G410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>469.07</v>
+      </c>
+      <c r="D411" t="n">
+        <v>473.26</v>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="n">
+        <v>441.39</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>406.1066666666667</v>
+      </c>
+      <c r="C412" t="n">
+        <v>434.06</v>
+      </c>
+      <c r="D412" t="n">
+        <v>431.48</v>
+      </c>
+      <c r="E412" t="n">
+        <v>418.22</v>
+      </c>
+      <c r="F412" t="n">
+        <v>413.2733333333333</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="n">
+        <v>453.7600000000001</v>
+      </c>
+      <c r="D413" t="n">
+        <v>457.53</v>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="n">
+        <v>432.2666666666667</v>
+      </c>
+      <c r="G413" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10419,7 +10496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15997,6 +16074,36 @@
       </c>
       <c r="B557" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -16170,28 +16277,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.301743672117801</v>
+        <v>6.283473742403055</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6392957277144786</v>
+        <v>0.6392623899122198</v>
       </c>
       <c r="M2" t="n">
-        <v>29.08730601388397</v>
+        <v>29.05559765358264</v>
       </c>
       <c r="N2" t="n">
-        <v>1239.916347175017</v>
+        <v>1236.993984460665</v>
       </c>
       <c r="O2" t="n">
-        <v>35.21244591298674</v>
+        <v>35.17092527160275</v>
       </c>
       <c r="P2" t="n">
-        <v>267.0831281192617</v>
+        <v>267.2722363092577</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16248,28 +16355,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6726527389387</v>
+        <v>6.77395402317941</v>
       </c>
       <c r="J3" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6671014768096106</v>
+        <v>0.6722590426878068</v>
       </c>
       <c r="M3" t="n">
-        <v>22.36510753666477</v>
+        <v>22.59238035512194</v>
       </c>
       <c r="N3" t="n">
-        <v>1024.891427032645</v>
+        <v>1040.888052967886</v>
       </c>
       <c r="O3" t="n">
-        <v>32.01392551738455</v>
+        <v>32.26279673196181</v>
       </c>
       <c r="P3" t="n">
-        <v>252.1013066391683</v>
+        <v>250.9061376434646</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16326,28 +16433,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.680824170800336</v>
+        <v>5.73325116277012</v>
       </c>
       <c r="J4" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7742631219892447</v>
+        <v>0.7762502353373506</v>
       </c>
       <c r="M4" t="n">
-        <v>16.96838717372278</v>
+        <v>17.08941896565928</v>
       </c>
       <c r="N4" t="n">
-        <v>491.6265232700291</v>
+        <v>498.6400275252032</v>
       </c>
       <c r="O4" t="n">
-        <v>22.17265259886667</v>
+        <v>22.3302491594967</v>
       </c>
       <c r="P4" t="n">
-        <v>275.8373616182848</v>
+        <v>275.273879840597</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16404,28 +16511,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.114341818834406</v>
+        <v>5.111857707241053</v>
       </c>
       <c r="J5" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7405605207332612</v>
+        <v>0.7414006113230075</v>
       </c>
       <c r="M5" t="n">
-        <v>17.0488542649192</v>
+        <v>17.00935578547232</v>
       </c>
       <c r="N5" t="n">
-        <v>486.9092347878093</v>
+        <v>485.5113274814643</v>
       </c>
       <c r="O5" t="n">
-        <v>22.06601991270309</v>
+        <v>22.03432157978694</v>
       </c>
       <c r="P5" t="n">
-        <v>290.5302800078633</v>
+        <v>290.5565927892228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16482,28 +16589,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.152202846773948</v>
+        <v>5.186901479673853</v>
       </c>
       <c r="J6" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7641574141113667</v>
+        <v>0.7676535800498894</v>
       </c>
       <c r="M6" t="n">
-        <v>16.57200248531195</v>
+        <v>16.62720460600538</v>
       </c>
       <c r="N6" t="n">
-        <v>444.0455895971098</v>
+        <v>445.5938188607821</v>
       </c>
       <c r="O6" t="n">
-        <v>21.07238927120297</v>
+        <v>21.10909327424516</v>
       </c>
       <c r="P6" t="n">
-        <v>289.2471925412351</v>
+        <v>288.8832463629606</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16541,7 +16648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29493,11 +29600,114 @@
           <t>-36.98022612501605,174.46881818882792</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-36.979748331632635,174.46748503170775</t>
+        </is>
+      </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-36.97756951577113,174.4672926604364</t>
+        </is>
+      </c>
       <c r="G410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-36.979676687789926,174.46785095661073</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-36.97898685072923,174.46760077315878</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-36.97752115511592,174.4675396591848</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-36.98024093307342,174.46874255896776</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-36.97960188042936,174.4682330325129</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-36.97889757822525,174.46805672840296</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-36.97817044925191,174.4679969760097</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-36.97746107751252,174.4678464973777</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-36.97964397440922,174.46801803988564</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-36.97895324019777,174.46777243858463</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-36.97750166114126,174.46763922250472</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10475,11 +10475,92 @@
       <c r="D413" t="n">
         <v>457.53</v>
       </c>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="n">
+        <v>458.98</v>
+      </c>
       <c r="F413" t="n">
         <v>432.2666666666667</v>
       </c>
       <c r="G413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>460.92</v>
+      </c>
+      <c r="D414" t="n">
+        <v>471.58</v>
+      </c>
+      <c r="E414" t="n">
+        <v>474.96</v>
+      </c>
+      <c r="F414" t="n">
+        <v>445.81</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>396.5233333333333</v>
+      </c>
+      <c r="C415" t="n">
+        <v>439.7</v>
+      </c>
+      <c r="D415" t="n">
+        <v>454.46</v>
+      </c>
+      <c r="E415" t="n">
+        <v>442.03</v>
+      </c>
+      <c r="F415" t="n">
+        <v>423.7966666666667</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>421.5833333333333</v>
+      </c>
+      <c r="C416" t="n">
+        <v>436.9</v>
+      </c>
+      <c r="D416" t="n">
+        <v>432.2</v>
+      </c>
+      <c r="E416" t="n">
+        <v>421.12</v>
+      </c>
+      <c r="F416" t="n">
+        <v>409.1366666666667</v>
+      </c>
+      <c r="G416" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10496,7 +10577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16104,6 +16185,36 @@
       </c>
       <c r="B560" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -16277,28 +16388,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.283473742403055</v>
+        <v>6.251283655925022</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6392623899122198</v>
+        <v>0.6394438837586927</v>
       </c>
       <c r="M2" t="n">
-        <v>29.05559765358264</v>
+        <v>28.97113242744519</v>
       </c>
       <c r="N2" t="n">
-        <v>1236.993984460665</v>
+        <v>1231.522532622907</v>
       </c>
       <c r="O2" t="n">
-        <v>35.17092527160275</v>
+        <v>35.09305533325513</v>
       </c>
       <c r="P2" t="n">
-        <v>267.2722363092577</v>
+        <v>267.6071823306355</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16355,28 +16466,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.77395402317941</v>
+        <v>6.809589536633712</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6722590426878068</v>
+        <v>0.6771412363679752</v>
       </c>
       <c r="M3" t="n">
-        <v>22.59238035512194</v>
+        <v>22.55147665418156</v>
       </c>
       <c r="N3" t="n">
-        <v>1040.888052967886</v>
+        <v>1035.239614340093</v>
       </c>
       <c r="O3" t="n">
-        <v>32.26279673196181</v>
+        <v>32.17513969418148</v>
       </c>
       <c r="P3" t="n">
-        <v>250.9061376434646</v>
+        <v>250.4834059445029</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16433,28 +16544,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.73325116277012</v>
+        <v>5.780423008406311</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7762502353373506</v>
+        <v>0.778518030356867</v>
       </c>
       <c r="M4" t="n">
-        <v>17.08941896565928</v>
+        <v>17.19301978842343</v>
       </c>
       <c r="N4" t="n">
-        <v>498.6400275252032</v>
+        <v>503.8125914710845</v>
       </c>
       <c r="O4" t="n">
-        <v>22.3302491594967</v>
+        <v>22.44577001287959</v>
       </c>
       <c r="P4" t="n">
-        <v>275.273879840597</v>
+        <v>274.7647066165416</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16511,28 +16622,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.111857707241053</v>
+        <v>5.168215191945854</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7414006113230075</v>
+        <v>0.7447393914167653</v>
       </c>
       <c r="M5" t="n">
-        <v>17.00935578547232</v>
+        <v>17.17533292542778</v>
       </c>
       <c r="N5" t="n">
-        <v>485.5113274814643</v>
+        <v>492.4283686093912</v>
       </c>
       <c r="O5" t="n">
-        <v>22.03432157978694</v>
+        <v>22.19072708609142</v>
       </c>
       <c r="P5" t="n">
-        <v>290.5565927892228</v>
+        <v>289.957986152342</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16589,28 +16700,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.186901479673853</v>
+        <v>5.191534415271549</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7676535800498894</v>
+        <v>0.7699881733249664</v>
       </c>
       <c r="M6" t="n">
-        <v>16.62720460600538</v>
+        <v>16.58912437010736</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5938188607821</v>
+        <v>443.6322800917713</v>
       </c>
       <c r="O6" t="n">
-        <v>21.10909327424516</v>
+        <v>21.06258009104704</v>
       </c>
       <c r="P6" t="n">
-        <v>288.8832463629606</v>
+        <v>288.8346986712418</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16648,7 +16759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29701,13 +29812,124 @@
           <t>-36.97895324019777,174.46777243858463</t>
         </is>
       </c>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-36.97825754229219,174.467552156502</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr">
         <is>
           <t>-36.97750166114126,174.46763922250472</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-36.97965927344571,174.46793990037153</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-36.978983261059234,174.46761910742674</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-36.97829168675913,174.4673777642643</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-36.97753059937213,174.4674914235199</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-36.98022045534801,174.46884714570706</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-36.97961393174005,174.46817148134966</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-36.978946680453234,174.46780594224424</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-36.978221324949644,174.46773713432194</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-36.9774835630807,174.46773165592268</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-36.98027400351742,174.46857365580638</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-36.97960794882378,174.4682020386673</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-36.9788991166842,174.4680488708783</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-36.978176645817996,174.46796532794457</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-36.97745223852458,174.46789164092672</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G416"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10563,6 +10563,33 @@
       <c r="G416" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>436.9266666666667</v>
+      </c>
+      <c r="C417" t="n">
+        <v>441.02</v>
+      </c>
+      <c r="D417" t="n">
+        <v>445.01</v>
+      </c>
+      <c r="E417" t="n">
+        <v>454.64</v>
+      </c>
+      <c r="F417" t="n">
+        <v>424.4433333333333</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16215,6 +16242,16 @@
       </c>
       <c r="B563" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -16759,7 +16796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G416"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29935,6 +29972,43 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-36.98030678882128,174.46840620761395</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-36.979616752255005,174.46815707575533</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-36.97892648834711,174.46790907236363</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-36.97824826897024,174.467599519572</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-36.97748494483204,174.46772459882746</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -16425,28 +16425,28 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.251283655925022</v>
+        <v>6.256465808554442</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6394438837586927</v>
+        <v>0.6415056229161179</v>
       </c>
       <c r="M2" t="n">
-        <v>28.97113242744519</v>
+        <v>28.87958448998511</v>
       </c>
       <c r="N2" t="n">
-        <v>1231.522532622907</v>
+        <v>1226.483086269937</v>
       </c>
       <c r="O2" t="n">
-        <v>35.09305533325513</v>
+        <v>35.02118053792501</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6071823306355</v>
+        <v>267.5531502216226</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16503,28 +16503,28 @@
         <v>0.0339</v>
       </c>
       <c r="I3" t="n">
-        <v>6.809589536633712</v>
+        <v>6.817990289402015</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6771412363679752</v>
+        <v>0.6787248545296143</v>
       </c>
       <c r="M3" t="n">
-        <v>22.55147665418156</v>
+        <v>22.51970234372191</v>
       </c>
       <c r="N3" t="n">
-        <v>1035.239614340093</v>
+        <v>1032.402433337304</v>
       </c>
       <c r="O3" t="n">
-        <v>32.17513969418148</v>
+        <v>32.13101979921123</v>
       </c>
       <c r="P3" t="n">
-        <v>250.4834059445029</v>
+        <v>250.3834791246174</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16581,28 +16581,28 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.780423008406311</v>
+        <v>5.791371992623331</v>
       </c>
       <c r="J4" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.778518030356867</v>
+        <v>0.7796696808684357</v>
       </c>
       <c r="M4" t="n">
-        <v>17.19301978842343</v>
+        <v>17.20230373999467</v>
       </c>
       <c r="N4" t="n">
-        <v>503.8125914710845</v>
+        <v>503.4996236348647</v>
       </c>
       <c r="O4" t="n">
-        <v>22.44577001287959</v>
+        <v>22.43879728583653</v>
       </c>
       <c r="P4" t="n">
-        <v>274.7647066165416</v>
+        <v>274.64618295026</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16659,28 +16659,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>5.168215191945854</v>
+        <v>5.18456732744117</v>
       </c>
       <c r="J5" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7447393914167653</v>
+        <v>0.7459037170012909</v>
       </c>
       <c r="M5" t="n">
-        <v>17.17533292542778</v>
+        <v>17.22740144845387</v>
       </c>
       <c r="N5" t="n">
-        <v>492.4283686093912</v>
+        <v>493.6820563009531</v>
       </c>
       <c r="O5" t="n">
-        <v>22.19072708609142</v>
+        <v>22.21895713801512</v>
       </c>
       <c r="P5" t="n">
-        <v>289.957986152342</v>
+        <v>289.7835693698459</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16737,28 +16737,28 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.191534415271549</v>
+        <v>5.191941903760744</v>
       </c>
       <c r="J6" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7699881733249664</v>
+        <v>0.7709715260736822</v>
       </c>
       <c r="M6" t="n">
-        <v>16.58912437010736</v>
+        <v>16.5392095491063</v>
       </c>
       <c r="N6" t="n">
-        <v>443.6322800917713</v>
+        <v>442.2345003927242</v>
       </c>
       <c r="O6" t="n">
-        <v>21.06258009104704</v>
+        <v>21.02937232521989</v>
       </c>
       <c r="P6" t="n">
-        <v>288.8346986712418</v>
+        <v>288.8303851701953</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.2533333333333</v>
+        <v>298.25</v>
       </c>
       <c r="C4" t="n">
         <v>320.5</v>
@@ -544,7 +544,7 @@
         <v>327.6</v>
       </c>
       <c r="F4" t="n">
-        <v>332.9766666666667</v>
+        <v>332.98</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         <v>343.66</v>
       </c>
       <c r="F5" t="n">
-        <v>338.3333333333333</v>
+        <v>338.33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.8133333333333</v>
+        <v>283.81</v>
       </c>
       <c r="C6" t="n">
         <v>309.51</v>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.0266666666667</v>
+        <v>297.03</v>
       </c>
       <c r="C8" t="n">
         <v>310.19</v>
@@ -636,7 +636,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>304.7233333333333</v>
+        <v>304.72</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>331.3633333333333</v>
+        <v>331.36</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
@@ -705,7 +705,7 @@
         <v>324.26</v>
       </c>
       <c r="F11" t="n">
-        <v>312.8566666666667</v>
+        <v>312.86</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.0766666666667</v>
+        <v>298.08</v>
       </c>
       <c r="C12" t="n">
         <v>312.44</v>
@@ -732,7 +732,7 @@
         <v>322.54</v>
       </c>
       <c r="F12" t="n">
-        <v>342.0933333333333</v>
+        <v>342.09</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.5933333333333</v>
+        <v>310.59</v>
       </c>
       <c r="C14" t="n">
         <v>317.47</v>
@@ -782,7 +782,7 @@
         <v>326.01</v>
       </c>
       <c r="F14" t="n">
-        <v>332.4066666666667</v>
+        <v>332.41</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>333.05</v>
       </c>
       <c r="F15" t="n">
-        <v>326.8866666666667</v>
+        <v>326.89</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>329.19</v>
       </c>
       <c r="F16" t="n">
-        <v>308.4733333333333</v>
+        <v>308.47</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.1966666666667</v>
+        <v>346.2</v>
       </c>
       <c r="C17" t="n">
         <v>281.13</v>
@@ -850,10 +850,10 @@
         <v>318.03</v>
       </c>
       <c r="E17" t="n">
-        <v>314.4399999999999</v>
+        <v>314.44</v>
       </c>
       <c r="F17" t="n">
-        <v>311.9133333333333</v>
+        <v>311.91</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>312.5466666666667</v>
+        <v>312.55</v>
       </c>
       <c r="C18" t="n">
         <v>346.78</v>
@@ -880,7 +880,7 @@
         <v>354.07</v>
       </c>
       <c r="F18" t="n">
-        <v>334.9833333333333</v>
+        <v>334.98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.9466666666666</v>
+        <v>326.95</v>
       </c>
       <c r="C20" t="n">
         <v>344.76</v>
@@ -934,7 +934,7 @@
         <v>325.5</v>
       </c>
       <c r="F20" t="n">
-        <v>360.0833333333333</v>
+        <v>360.08</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1026,17 +1026,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.4366666666667</v>
+        <v>253.44</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>323.1899999999999</v>
+        <v>323.19</v>
       </c>
       <c r="E24" t="n">
         <v>327.24</v>
       </c>
       <c r="F24" t="n">
-        <v>326.5133333333333</v>
+        <v>326.51</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>287.8233333333333</v>
+        <v>287.82</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.7166666666667</v>
+        <v>276.72</v>
       </c>
       <c r="C26" t="n">
         <v>299.39</v>
@@ -1082,7 +1082,7 @@
         <v>309.4</v>
       </c>
       <c r="F26" t="n">
-        <v>322.1333333333333</v>
+        <v>322.13</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>250.5866666666666</v>
+        <v>250.59</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
         <v>312</v>
       </c>
       <c r="F29" t="n">
-        <v>312.5733333333333</v>
+        <v>312.57</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>264.2466666666667</v>
+        <v>264.25</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>297.76</v>
       </c>
       <c r="F32" t="n">
-        <v>293.1433333333333</v>
+        <v>293.14</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>279.75</v>
       </c>
       <c r="F33" t="n">
-        <v>276.9466666666667</v>
+        <v>276.95</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>238.8266666666667</v>
+        <v>238.83</v>
       </c>
       <c r="C35" t="n">
         <v>300.03</v>
@@ -1291,7 +1291,7 @@
         <v>322.75</v>
       </c>
       <c r="F35" t="n">
-        <v>320.9033333333333</v>
+        <v>320.9</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>237.2433333333334</v>
+        <v>237.24</v>
       </c>
       <c r="C36" t="n">
         <v>297.71</v>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>220.6833333333333</v>
+        <v>220.68</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
@@ -1341,7 +1341,7 @@
         <v>295.52</v>
       </c>
       <c r="F37" t="n">
-        <v>302.2266666666667</v>
+        <v>302.23</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>263.7833333333333</v>
+        <v>263.78</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
@@ -1387,7 +1387,7 @@
         <v>319.9</v>
       </c>
       <c r="F39" t="n">
-        <v>323.7366666666667</v>
+        <v>323.74</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.5733333333334</v>
+        <v>297.57</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1431,7 +1431,7 @@
         <v>332.58</v>
       </c>
       <c r="F41" t="n">
-        <v>330.7866666666667</v>
+        <v>330.79</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>316.33</v>
       </c>
       <c r="D42" t="n">
-        <v>294.0600000000001</v>
+        <v>294.06</v>
       </c>
       <c r="E42" t="n">
         <v>311.14</v>
@@ -1481,7 +1481,7 @@
         <v>287.44</v>
       </c>
       <c r="F43" t="n">
-        <v>303.2766666666667</v>
+        <v>303.28</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.6233333333333</v>
+        <v>302.62</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
@@ -1506,7 +1506,7 @@
         <v>312.34</v>
       </c>
       <c r="F44" t="n">
-        <v>306.9666666666667</v>
+        <v>306.97</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>329.44</v>
       </c>
       <c r="F45" t="n">
-        <v>316.9533333333333</v>
+        <v>316.95</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>320.4133333333333</v>
+        <v>320.41</v>
       </c>
       <c r="C46" t="n">
         <v>332.06</v>
@@ -1554,7 +1554,7 @@
         <v>350.83</v>
       </c>
       <c r="F46" t="n">
-        <v>339.2666666666667</v>
+        <v>339.27</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>282.31</v>
       </c>
       <c r="F51" t="n">
-        <v>282.5033333333333</v>
+        <v>282.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>311.61</v>
       </c>
       <c r="F52" t="n">
-        <v>303.3133333333333</v>
+        <v>303.31</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>294</v>
       </c>
       <c r="F53" t="n">
-        <v>285.9566666666667</v>
+        <v>285.96</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>299.58</v>
       </c>
       <c r="F55" t="n">
-        <v>296.8966666666667</v>
+        <v>296.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>336.02</v>
       </c>
       <c r="F57" t="n">
-        <v>323.7233333333333</v>
+        <v>323.72</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>324.4033333333333</v>
+        <v>324.4</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>290.9333333333333</v>
+        <v>290.93</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>294.0033333333333</v>
+        <v>294</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
         <v>307.52</v>
       </c>
       <c r="F69" t="n">
-        <v>323.7166666666667</v>
+        <v>323.72</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>263.9433333333333</v>
+        <v>263.94</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>313.5333333333333</v>
+        <v>313.53</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
@@ -2155,7 +2155,7 @@
         <v>320.12</v>
       </c>
       <c r="F73" t="n">
-        <v>336.6666666666667</v>
+        <v>336.67</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>347.9366666666667</v>
+        <v>347.94</v>
       </c>
       <c r="C75" t="n">
         <v>250.73</v>
@@ -2209,7 +2209,7 @@
         <v>327.35</v>
       </c>
       <c r="F75" t="n">
-        <v>326.2933333333333</v>
+        <v>326.29</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>281.5266666666667</v>
+        <v>281.53</v>
       </c>
       <c r="C76" t="n">
-        <v>253.4100000000001</v>
+        <v>253.41</v>
       </c>
       <c r="D76" t="n">
         <v>257.91</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>290.3433333333333</v>
+        <v>290.34</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>274.5466666666667</v>
+        <v>274.55</v>
       </c>
       <c r="C78" t="n">
         <v>227.55</v>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>260.4033333333333</v>
+        <v>260.4</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
         <v>328.9</v>
       </c>
       <c r="F81" t="n">
-        <v>330.9966666666667</v>
+        <v>331</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>330.61</v>
       </c>
       <c r="F82" t="n">
-        <v>317.1566666666667</v>
+        <v>317.16</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>298.1833333333333</v>
+        <v>298.18</v>
       </c>
       <c r="C83" t="n">
         <v>235.81</v>
@@ -2385,7 +2385,7 @@
         <v>328.49</v>
       </c>
       <c r="F83" t="n">
-        <v>325.9566666666667</v>
+        <v>325.96</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>310.0033333333333</v>
+        <v>310</v>
       </c>
       <c r="C84" t="n">
         <v>229.57</v>
@@ -2412,7 +2412,7 @@
         <v>324.94</v>
       </c>
       <c r="F84" t="n">
-        <v>319.7266666666667</v>
+        <v>319.73</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>352.76</v>
       </c>
       <c r="F85" t="n">
-        <v>336.9233333333333</v>
+        <v>336.92</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>331.44</v>
       </c>
       <c r="F86" t="n">
-        <v>323.1333333333333</v>
+        <v>323.13</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>344.42</v>
       </c>
       <c r="F87" t="n">
-        <v>327.1766666666667</v>
+        <v>327.18</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>331.31</v>
       </c>
       <c r="F88" t="n">
-        <v>328.8066666666667</v>
+        <v>328.81</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>277.4266666666667</v>
+        <v>277.43</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
@@ -2581,7 +2581,7 @@
         <v>338.92</v>
       </c>
       <c r="F91" t="n">
-        <v>345.0033333333333</v>
+        <v>345</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>337.8066666666667</v>
+        <v>337.81</v>
       </c>
       <c r="C92" t="n">
         <v>248.31</v>
@@ -2608,7 +2608,7 @@
         <v>332.61</v>
       </c>
       <c r="F92" t="n">
-        <v>318.0633333333333</v>
+        <v>318.06</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>355.9066666666667</v>
+        <v>355.91</v>
       </c>
       <c r="C93" t="n">
         <v>274.08</v>
@@ -2635,7 +2635,7 @@
         <v>336.94</v>
       </c>
       <c r="F93" t="n">
-        <v>321.4933333333333</v>
+        <v>321.49</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>330.2066666666667</v>
+        <v>330.21</v>
       </c>
       <c r="C94" t="n">
         <v>296.72</v>
@@ -2662,7 +2662,7 @@
         <v>336.05</v>
       </c>
       <c r="F94" t="n">
-        <v>326.2033333333333</v>
+        <v>326.2</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>275.2433333333333</v>
+        <v>275.24</v>
       </c>
       <c r="C95" t="n">
         <v>310.75</v>
@@ -2689,7 +2689,7 @@
         <v>334.64</v>
       </c>
       <c r="F95" t="n">
-        <v>351.4866666666667</v>
+        <v>351.49</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>261.5033333333333</v>
+        <v>261.5</v>
       </c>
       <c r="C96" t="n">
         <v>297.78</v>
@@ -2716,7 +2716,7 @@
         <v>324.89</v>
       </c>
       <c r="F96" t="n">
-        <v>352.6266666666667</v>
+        <v>352.63</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>277.1666666666667</v>
+        <v>277.17</v>
       </c>
       <c r="C97" t="n">
         <v>207.13</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>254.2833333333333</v>
+        <v>254.28</v>
       </c>
       <c r="C98" t="n">
         <v>187.59</v>
@@ -2764,7 +2764,7 @@
         <v>339.05</v>
       </c>
       <c r="F98" t="n">
-        <v>342.8766666666667</v>
+        <v>342.88</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>321.13</v>
       </c>
       <c r="F99" t="n">
-        <v>322.9433333333333</v>
+        <v>322.94</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>294.95</v>
       </c>
       <c r="F100" t="n">
-        <v>328.7133333333333</v>
+        <v>328.71</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>356.88</v>
       </c>
       <c r="F101" t="n">
-        <v>343.5833333333333</v>
+        <v>343.58</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>249.4166666666666</v>
+        <v>249.42</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>288.2533333333333</v>
+        <v>288.25</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
@@ -2879,7 +2879,7 @@
         <v>340.8</v>
       </c>
       <c r="F103" t="n">
-        <v>337.4066666666667</v>
+        <v>337.41</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>313.4566666666666</v>
+        <v>313.46</v>
       </c>
       <c r="C104" t="n">
         <v>271.88</v>
@@ -2906,7 +2906,7 @@
         <v>331.54</v>
       </c>
       <c r="F104" t="n">
-        <v>329.4133333333333</v>
+        <v>329.41</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>325.5733333333334</v>
+        <v>325.57</v>
       </c>
       <c r="C105" t="n">
         <v>272.45</v>
@@ -2933,7 +2933,7 @@
         <v>337.7</v>
       </c>
       <c r="F105" t="n">
-        <v>327.5066666666667</v>
+        <v>327.51</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>322.31</v>
       </c>
       <c r="F106" t="n">
-        <v>345.3733333333333</v>
+        <v>345.37</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>366.2566666666667</v>
+        <v>366.26</v>
       </c>
       <c r="C109" t="n">
         <v>345.28</v>
@@ -3027,7 +3027,7 @@
         <v>343.05</v>
       </c>
       <c r="F109" t="n">
-        <v>341.1933333333333</v>
+        <v>341.19</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>381.4633333333334</v>
+        <v>381.46</v>
       </c>
       <c r="C110" t="n">
         <v>346.3</v>
@@ -3054,7 +3054,7 @@
         <v>332.81</v>
       </c>
       <c r="F110" t="n">
-        <v>324.0466666666667</v>
+        <v>324.05</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>381.9866666666667</v>
+        <v>381.99</v>
       </c>
       <c r="C111" t="n">
         <v>356.05</v>
@@ -3081,7 +3081,7 @@
         <v>354.64</v>
       </c>
       <c r="F111" t="n">
-        <v>358.7533333333333</v>
+        <v>358.75</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>337.76</v>
       </c>
       <c r="F112" t="n">
-        <v>337.2233333333333</v>
+        <v>337.22</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>385.2966666666667</v>
+        <v>385.3</v>
       </c>
       <c r="C114" t="n">
         <v>348.42</v>
@@ -3154,7 +3154,7 @@
         <v>332.51</v>
       </c>
       <c r="F114" t="n">
-        <v>330.3833333333333</v>
+        <v>330.38</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>349.82</v>
       </c>
       <c r="F116" t="n">
-        <v>314.5433333333333</v>
+        <v>314.54</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>340.53</v>
       </c>
       <c r="F119" t="n">
-        <v>354.2966666666667</v>
+        <v>354.3</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>308.1033333333333</v>
+        <v>308.1</v>
       </c>
       <c r="C120" t="n">
         <v>347.79</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>378.8966666666667</v>
+        <v>378.9</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>319.3466666666667</v>
+        <v>319.35</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>349.9833333333333</v>
+        <v>349.98</v>
       </c>
       <c r="C122" t="n">
         <v>344.24</v>
@@ -3348,7 +3348,7 @@
         <v>335.68</v>
       </c>
       <c r="F122" t="n">
-        <v>324.3866666666667</v>
+        <v>324.39</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>337.56</v>
       </c>
       <c r="F123" t="n">
-        <v>320.3066666666667</v>
+        <v>320.31</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>356.7</v>
       </c>
       <c r="F124" t="n">
-        <v>338.5966666666667</v>
+        <v>338.6</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>333.73</v>
       </c>
       <c r="F125" t="n">
-        <v>328.0466666666667</v>
+        <v>328.05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>334.41</v>
       </c>
       <c r="F126" t="n">
-        <v>312.8766666666667</v>
+        <v>312.88</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>385.8433333333333</v>
+        <v>385.84</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>386.1566666666667</v>
+        <v>386.16</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
@@ -3614,7 +3614,7 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>345.0133333333333</v>
+        <v>345.01</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>321.65</v>
       </c>
       <c r="F138" t="n">
-        <v>331.3866666666667</v>
+        <v>331.39</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>350.49</v>
       </c>
       <c r="F139" t="n">
-        <v>358.0966666666667</v>
+        <v>358.1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>287.7233333333333</v>
+        <v>287.72</v>
       </c>
       <c r="C142" t="n">
         <v>291.72</v>
@@ -3804,7 +3804,7 @@
         <v>319.24</v>
       </c>
       <c r="F142" t="n">
-        <v>319.2366666666667</v>
+        <v>319.24</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>325.3466666666667</v>
+        <v>325.35</v>
       </c>
       <c r="C143" t="n">
         <v>335.25</v>
@@ -3831,7 +3831,7 @@
         <v>340.55</v>
       </c>
       <c r="F143" t="n">
-        <v>358.9733333333333</v>
+        <v>358.97</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>365.0533333333333</v>
+        <v>365.05</v>
       </c>
       <c r="C144" t="n">
         <v>347.45</v>
@@ -3858,7 +3858,7 @@
         <v>347.11</v>
       </c>
       <c r="F144" t="n">
-        <v>353.8266666666667</v>
+        <v>353.83</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>369.7166666666667</v>
+        <v>369.72</v>
       </c>
       <c r="C145" t="n">
         <v>352.35</v>
@@ -3885,7 +3885,7 @@
         <v>354.88</v>
       </c>
       <c r="F145" t="n">
-        <v>357.7633333333333</v>
+        <v>357.76</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>381.6733333333333</v>
+        <v>381.67</v>
       </c>
       <c r="C146" t="n">
         <v>345.16</v>
@@ -3912,7 +3912,7 @@
         <v>355.33</v>
       </c>
       <c r="F146" t="n">
-        <v>345.1666666666667</v>
+        <v>345.17</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>362.4933333333333</v>
+        <v>362.49</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
@@ -3937,7 +3937,7 @@
         <v>364.32</v>
       </c>
       <c r="F147" t="n">
-        <v>345.0866666666667</v>
+        <v>345.09</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>389.1166666666667</v>
+        <v>389.12</v>
       </c>
       <c r="C148" t="n">
         <v>368.88</v>
@@ -3961,10 +3961,10 @@
         <v>364.02</v>
       </c>
       <c r="E148" t="n">
-        <v>356.1799999999999</v>
+        <v>356.18</v>
       </c>
       <c r="F148" t="n">
-        <v>347.4433333333333</v>
+        <v>347.44</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>365.6266666666667</v>
+        <v>365.63</v>
       </c>
       <c r="C149" t="n">
         <v>354.12</v>
@@ -3991,7 +3991,7 @@
         <v>342.1</v>
       </c>
       <c r="F149" t="n">
-        <v>349.9733333333333</v>
+        <v>349.97</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>358.6633333333333</v>
+        <v>358.66</v>
       </c>
       <c r="C151" t="n">
         <v>362.03</v>
@@ -4089,7 +4089,7 @@
         <v>375.89</v>
       </c>
       <c r="F153" t="n">
-        <v>368.7966666666667</v>
+        <v>368.8</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>323.5933333333333</v>
+        <v>323.59</v>
       </c>
       <c r="C158" t="n">
         <v>348.4</v>
@@ -4212,7 +4212,7 @@
         <v>345.47</v>
       </c>
       <c r="F158" t="n">
-        <v>350.5866666666667</v>
+        <v>350.59</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>335.83</v>
       </c>
       <c r="F159" t="n">
-        <v>314.3233333333333</v>
+        <v>314.32</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>280.71</v>
       </c>
       <c r="C164" t="n">
-        <v>360.1799999999999</v>
+        <v>360.18</v>
       </c>
       <c r="D164" t="n">
         <v>365.76</v>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>356.2666666666667</v>
+        <v>356.27</v>
       </c>
       <c r="C165" t="n">
         <v>346.77</v>
@@ -4383,7 +4383,7 @@
         <v>359.61</v>
       </c>
       <c r="F165" t="n">
-        <v>372.4633333333333</v>
+        <v>372.46</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>371.4</v>
       </c>
       <c r="F168" t="n">
-        <v>364.8366666666667</v>
+        <v>364.84</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>328.6033333333333</v>
+        <v>328.6</v>
       </c>
       <c r="C169" t="n">
         <v>340.04</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>341.3666666666667</v>
+        <v>341.37</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>376.4333333333333</v>
+        <v>376.43</v>
       </c>
       <c r="C170" t="n">
         <v>343.43</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>348.0733333333333</v>
+        <v>348.07</v>
       </c>
       <c r="C171" t="n">
         <v>369.9</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>366.0033333333333</v>
+        <v>366</v>
       </c>
       <c r="C172" t="n">
         <v>379.42</v>
@@ -4558,7 +4558,7 @@
         <v>386.2</v>
       </c>
       <c r="F172" t="n">
-        <v>374.5166666666667</v>
+        <v>374.52</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>406.2266666666667</v>
+        <v>406.23</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
@@ -4679,7 +4679,7 @@
         <v>345.49</v>
       </c>
       <c r="F177" t="n">
-        <v>353.1733333333333</v>
+        <v>353.17</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>365.56</v>
       </c>
       <c r="F178" t="n">
-        <v>362.7133333333333</v>
+        <v>362.71</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>380.2833333333333</v>
+        <v>380.28</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -4776,13 +4776,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>437.8133333333333</v>
+        <v>437.81</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>412.5366666666667</v>
+        <v>412.54</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>380.2866666666667</v>
+        <v>380.29</v>
       </c>
       <c r="C184" t="n">
         <v>358.46</v>
@@ -4834,7 +4834,7 @@
         <v>371.02</v>
       </c>
       <c r="F184" t="n">
-        <v>384.8733333333333</v>
+        <v>384.87</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>364.38</v>
       </c>
       <c r="F185" t="n">
-        <v>360.8366666666667</v>
+        <v>360.84</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>346.73</v>
       </c>
       <c r="F187" t="n">
-        <v>346.1933333333333</v>
+        <v>346.19</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>356.3233333333334</v>
+        <v>356.32</v>
       </c>
       <c r="C190" t="n">
         <v>381.78</v>
@@ -4972,7 +4972,7 @@
         <v>381.53</v>
       </c>
       <c r="F190" t="n">
-        <v>376.0366666666667</v>
+        <v>376.04</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
-        <v>381.3466666666667</v>
+        <v>381.35</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>333.2333333333333</v>
+        <v>333.23</v>
       </c>
       <c r="C194" t="n">
         <v>392.52</v>
@@ -5070,7 +5070,7 @@
         <v>398.06</v>
       </c>
       <c r="F194" t="n">
-        <v>388.5866666666667</v>
+        <v>388.59</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>386.7333333333333</v>
+        <v>386.73</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>340.07</v>
       </c>
       <c r="F201" t="n">
-        <v>326.3033333333333</v>
+        <v>326.3</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>368.64</v>
       </c>
       <c r="F202" t="n">
-        <v>359.6133333333333</v>
+        <v>359.61</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>362.9166666666667</v>
+        <v>362.92</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
@@ -5257,7 +5257,7 @@
         <v>361.67</v>
       </c>
       <c r="F203" t="n">
-        <v>358.3533333333333</v>
+        <v>358.35</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>378.8533333333333</v>
+        <v>378.85</v>
       </c>
       <c r="C205" t="n">
         <v>372.74</v>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>401.6066666666667</v>
+        <v>401.61</v>
       </c>
       <c r="C206" t="n">
         <v>365.05</v>
@@ -5334,7 +5334,7 @@
         <v>348.76</v>
       </c>
       <c r="F206" t="n">
-        <v>346.9033333333333</v>
+        <v>346.9</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>425.0033333333333</v>
+        <v>425</v>
       </c>
       <c r="C207" t="n">
         <v>382.91</v>
@@ -5361,7 +5361,7 @@
         <v>374.39</v>
       </c>
       <c r="F207" t="n">
-        <v>365.2566666666667</v>
+        <v>365.26</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>371.5266666666667</v>
+        <v>371.53</v>
       </c>
       <c r="C208" t="n">
         <v>367.54</v>
@@ -5388,7 +5388,7 @@
         <v>361.72</v>
       </c>
       <c r="F208" t="n">
-        <v>367.3333333333333</v>
+        <v>367.33</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>383.8666666666667</v>
+        <v>383.87</v>
       </c>
       <c r="C213" t="n">
         <v>372.51</v>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>362.5100000000001</v>
+        <v>362.51</v>
       </c>
       <c r="D216" t="n">
         <v>384.37</v>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>329.3233333333333</v>
+        <v>329.32</v>
       </c>
       <c r="C217" t="n">
         <v>358.04</v>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>324.4833333333333</v>
+        <v>324.48</v>
       </c>
       <c r="C219" t="n">
         <v>353.06</v>
@@ -5688,7 +5688,7 @@
         <v>391.01</v>
       </c>
       <c r="F220" t="n">
-        <v>375.5566666666667</v>
+        <v>375.56</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>388.58</v>
       </c>
       <c r="F221" t="n">
-        <v>369.6433333333333</v>
+        <v>369.64</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>360.67</v>
       </c>
       <c r="F222" t="n">
-        <v>347.8866666666667</v>
+        <v>347.89</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>354.2933333333333</v>
+        <v>354.29</v>
       </c>
       <c r="C223" t="n">
         <v>387.24</v>
@@ -5805,7 +5805,7 @@
         <v>382.18</v>
       </c>
       <c r="F225" t="n">
-        <v>376.7166666666667</v>
+        <v>376.72</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>374.97</v>
       </c>
       <c r="F227" t="n">
-        <v>378.1633333333333</v>
+        <v>378.16</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>353.7333333333333</v>
+        <v>353.73</v>
       </c>
       <c r="C229" t="n">
         <v>375.67</v>
@@ -5919,7 +5919,7 @@
         <v>401.81</v>
       </c>
       <c r="E230" t="n">
-        <v>398.4500000000001</v>
+        <v>398.45</v>
       </c>
       <c r="F230" t="n">
         <v>394.25</v>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>316.8166666666667</v>
+        <v>316.82</v>
       </c>
       <c r="C231" t="n">
         <v>371.14</v>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>354.9466666666667</v>
+        <v>354.95</v>
       </c>
       <c r="C235" t="n">
         <v>357.77</v>
@@ -6045,7 +6045,7 @@
         <v>363.55</v>
       </c>
       <c r="F235" t="n">
-        <v>370.7533333333333</v>
+        <v>370.75</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>373.78</v>
       </c>
       <c r="F236" t="n">
-        <v>372.5866666666667</v>
+        <v>372.59</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>392.72</v>
       </c>
       <c r="F237" t="n">
-        <v>394.0266666666667</v>
+        <v>394.03</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>344.6033333333333</v>
+        <v>344.6</v>
       </c>
       <c r="C238" t="n">
         <v>359.76</v>
@@ -6122,7 +6122,7 @@
         <v>373.49</v>
       </c>
       <c r="F238" t="n">
-        <v>383.3566666666667</v>
+        <v>383.36</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>358.88</v>
       </c>
       <c r="F239" t="n">
-        <v>370.2866666666667</v>
+        <v>370.29</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>443.0666666666666</v>
+        <v>443.07</v>
       </c>
       <c r="C242" t="n">
         <v>412.81</v>
@@ -6222,7 +6222,7 @@
         <v>402.35</v>
       </c>
       <c r="F242" t="n">
-        <v>387.3033333333333</v>
+        <v>387.3</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>363.9166666666667</v>
+        <v>363.92</v>
       </c>
       <c r="C243" t="n">
         <v>367.93</v>
@@ -6249,7 +6249,7 @@
         <v>387.89</v>
       </c>
       <c r="F243" t="n">
-        <v>389.6133333333333</v>
+        <v>389.61</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>362.4666666666667</v>
+        <v>362.47</v>
       </c>
       <c r="C245" t="n">
         <v>378.51</v>
@@ -6297,7 +6297,7 @@
         <v>375.5</v>
       </c>
       <c r="F245" t="n">
-        <v>384.3533333333333</v>
+        <v>384.35</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>421.4533333333333</v>
+        <v>421.45</v>
       </c>
       <c r="C247" t="n">
         <v>418.3</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>420.4366666666667</v>
+        <v>420.44</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -6391,10 +6391,10 @@
         <v>424.69</v>
       </c>
       <c r="D249" t="n">
-        <v>425.0700000000001</v>
+        <v>425.07</v>
       </c>
       <c r="E249" t="n">
-        <v>423.2600000000001</v>
+        <v>423.26</v>
       </c>
       <c r="F249" t="n">
         <v>427.47</v>
@@ -6422,7 +6422,7 @@
         <v>401.44</v>
       </c>
       <c r="F250" t="n">
-        <v>408.7233333333333</v>
+        <v>408.72</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>400.6</v>
       </c>
       <c r="F252" t="n">
-        <v>413.5033333333333</v>
+        <v>413.5</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>445.1166666666667</v>
+        <v>445.12</v>
       </c>
       <c r="C254" t="n">
         <v>406.71</v>
@@ -6549,7 +6549,7 @@
         <v>380.43</v>
       </c>
       <c r="F255" t="n">
-        <v>384.0566666666667</v>
+        <v>384.06</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>386.63</v>
       </c>
       <c r="F256" t="n">
-        <v>376.7466666666666</v>
+        <v>376.75</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>429.6133333333333</v>
+        <v>429.61</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>435.4366666666667</v>
+        <v>435.44</v>
       </c>
       <c r="C258" t="n">
         <v>414.73</v>
@@ -6620,7 +6620,7 @@
         <v>401.12</v>
       </c>
       <c r="F258" t="n">
-        <v>392.9733333333333</v>
+        <v>392.97</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>387.1233333333333</v>
+        <v>387.12</v>
       </c>
       <c r="C260" t="n">
         <v>388.37</v>
@@ -6668,7 +6668,7 @@
         <v>399.26</v>
       </c>
       <c r="F260" t="n">
-        <v>395.3966666666667</v>
+        <v>395.4</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>411.4666666666667</v>
+        <v>411.47</v>
       </c>
       <c r="C261" t="n">
         <v>391.2</v>
@@ -6695,7 +6695,7 @@
         <v>366.04</v>
       </c>
       <c r="F261" t="n">
-        <v>356.0433333333333</v>
+        <v>356.04</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>372.8933333333333</v>
+        <v>372.89</v>
       </c>
       <c r="C264" t="n">
         <v>389.46</v>
@@ -6776,7 +6776,7 @@
         <v>392.27</v>
       </c>
       <c r="F264" t="n">
-        <v>389.2566666666667</v>
+        <v>389.26</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>421.2233333333334</v>
+        <v>421.22</v>
       </c>
       <c r="C265" t="n">
         <v>392.87</v>
@@ -6812,13 +6812,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>416.6033333333334</v>
+        <v>416.6</v>
       </c>
       <c r="C266" t="n">
         <v>379.11</v>
       </c>
       <c r="D266" t="n">
-        <v>391.3200000000001</v>
+        <v>391.32</v>
       </c>
       <c r="E266" t="n">
         <v>378.09</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>376.7933333333333</v>
+        <v>376.79</v>
       </c>
       <c r="C267" t="n">
         <v>392.4</v>
@@ -6849,7 +6849,7 @@
         <v>410.85</v>
       </c>
       <c r="F267" t="n">
-        <v>406.0166666666667</v>
+        <v>406.02</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>380.59</v>
       </c>
       <c r="F268" t="n">
-        <v>372.4233333333333</v>
+        <v>372.42</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>410.77</v>
       </c>
       <c r="F272" t="n">
-        <v>407.4233333333333</v>
+        <v>407.42</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>453.1433333333333</v>
+        <v>453.14</v>
       </c>
       <c r="C274" t="n">
         <v>410.29</v>
@@ -7028,7 +7028,7 @@
         <v>407.94</v>
       </c>
       <c r="F274" t="n">
-        <v>397.9566666666667</v>
+        <v>397.96</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>396.3066666666667</v>
+        <v>396.31</v>
       </c>
       <c r="C276" t="n">
-        <v>384.5100000000001</v>
+        <v>384.51</v>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>409.0833333333333</v>
+        <v>409.08</v>
       </c>
       <c r="C277" t="n">
-        <v>395.7000000000001</v>
+        <v>395.7</v>
       </c>
       <c r="D277" t="n">
         <v>395.44</v>
@@ -7097,7 +7097,7 @@
         <v>395.21</v>
       </c>
       <c r="F277" t="n">
-        <v>408.9166666666667</v>
+        <v>408.92</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>397.8933333333333</v>
+        <v>397.89</v>
       </c>
       <c r="C278" t="n">
         <v>390.03</v>
@@ -7124,7 +7124,7 @@
         <v>395.27</v>
       </c>
       <c r="F278" t="n">
-        <v>404.1466666666667</v>
+        <v>404.15</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>382</v>
       </c>
       <c r="F279" t="n">
-        <v>384.1566666666667</v>
+        <v>384.16</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>362.1233333333333</v>
+        <v>362.12</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
@@ -7262,7 +7262,7 @@
         <v>373.14</v>
       </c>
       <c r="F284" t="n">
-        <v>362.6833333333333</v>
+        <v>362.68</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>448.4366666666667</v>
+        <v>448.44</v>
       </c>
       <c r="C286" t="n">
         <v>412.8</v>
@@ -7316,7 +7316,7 @@
         <v>410.86</v>
       </c>
       <c r="F286" t="n">
-        <v>388.6733333333333</v>
+        <v>388.67</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>435.4266666666666</v>
+        <v>435.43</v>
       </c>
       <c r="C287" t="n">
         <v>408.32</v>
@@ -7343,7 +7343,7 @@
         <v>397.36</v>
       </c>
       <c r="F287" t="n">
-        <v>392.5133333333333</v>
+        <v>392.51</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>425.3566666666667</v>
+        <v>425.36</v>
       </c>
       <c r="C288" t="n">
         <v>407.35</v>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>397.4333333333333</v>
+        <v>397.43</v>
       </c>
       <c r="C289" t="n">
         <v>390.54</v>
@@ -7395,7 +7395,7 @@
         <v>386.47</v>
       </c>
       <c r="F289" t="n">
-        <v>385.6366666666667</v>
+        <v>385.64</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>377.7933333333333</v>
+        <v>377.79</v>
       </c>
       <c r="C291" t="n">
         <v>387.77</v>
@@ -7449,7 +7449,7 @@
         <v>386.06</v>
       </c>
       <c r="F291" t="n">
-        <v>404.1766666666667</v>
+        <v>404.18</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="n">
-        <v>369.9400000000001</v>
+        <v>369.94</v>
       </c>
       <c r="F292" t="n">
         <v>390.25</v>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>393.2533333333333</v>
+        <v>393.25</v>
       </c>
       <c r="C294" t="n">
         <v>401.12</v>
@@ -7518,7 +7518,7 @@
         <v>397.24</v>
       </c>
       <c r="F294" t="n">
-        <v>406.6366666666667</v>
+        <v>406.64</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>389.8766666666667</v>
+        <v>389.88</v>
       </c>
       <c r="C295" t="n">
         <v>393.28</v>
@@ -7710,7 +7710,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>417.1333333333333</v>
+        <v>417.13</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>376.3633333333333</v>
+        <v>376.36</v>
       </c>
       <c r="C304" t="n">
         <v>390.66</v>
@@ -7800,7 +7800,7 @@
         <v>399.44</v>
       </c>
       <c r="F306" t="n">
-        <v>425.0533333333333</v>
+        <v>425.05</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>404.63</v>
       </c>
       <c r="F309" t="n">
-        <v>399.2733333333333</v>
+        <v>399.27</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>347.5866666666667</v>
+        <v>347.59</v>
       </c>
       <c r="C310" t="n">
         <v>370.96</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>368.6433333333333</v>
+        <v>368.64</v>
       </c>
       <c r="C311" t="n">
         <v>391.39</v>
@@ -7929,7 +7929,7 @@
         <v>402.14</v>
       </c>
       <c r="F311" t="n">
-        <v>411.1066666666667</v>
+        <v>411.11</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>361.7466666666666</v>
+        <v>361.75</v>
       </c>
       <c r="C312" t="n">
         <v>399.13</v>
@@ -7956,7 +7956,7 @@
         <v>414.93</v>
       </c>
       <c r="F312" t="n">
-        <v>420.9133333333333</v>
+        <v>420.91</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>392.4066666666667</v>
+        <v>392.41</v>
       </c>
       <c r="C313" t="n">
         <v>396.88</v>
@@ -7983,7 +7983,7 @@
         <v>412.73</v>
       </c>
       <c r="F313" t="n">
-        <v>425.6533333333333</v>
+        <v>425.65</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>435.3266666666667</v>
+        <v>435.33</v>
       </c>
       <c r="C315" t="n">
         <v>412.84</v>
@@ -8037,7 +8037,7 @@
         <v>429.97</v>
       </c>
       <c r="F315" t="n">
-        <v>424.4433333333333</v>
+        <v>424.44</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>388.04</v>
       </c>
       <c r="F319" t="n">
-        <v>403.4366666666667</v>
+        <v>403.44</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>432.9566666666667</v>
+        <v>432.96</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>474.0166666666667</v>
+        <v>474.02</v>
       </c>
       <c r="C321" t="n">
         <v>438.31</v>
@@ -8183,7 +8183,7 @@
         <v>429.33</v>
       </c>
       <c r="F321" t="n">
-        <v>419.9233333333333</v>
+        <v>419.92</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>468.9733333333334</v>
+        <v>468.97</v>
       </c>
       <c r="C322" t="n">
         <v>431.44</v>
@@ -8210,7 +8210,7 @@
         <v>419.3</v>
       </c>
       <c r="F322" t="n">
-        <v>410.8866666666667</v>
+        <v>410.89</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>473.0933333333334</v>
+        <v>473.09</v>
       </c>
       <c r="C324" t="n">
         <v>442.8</v>
@@ -8256,7 +8256,7 @@
         <v>442.13</v>
       </c>
       <c r="F324" t="n">
-        <v>431.4366666666667</v>
+        <v>431.44</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>415.74</v>
       </c>
       <c r="F325" t="n">
-        <v>425.3366666666667</v>
+        <v>425.34</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>419.8866666666667</v>
+        <v>419.89</v>
       </c>
       <c r="C326" t="n">
         <v>396.21</v>
@@ -8308,7 +8308,7 @@
         <v>431.1</v>
       </c>
       <c r="F326" t="n">
-        <v>429.4933333333333</v>
+        <v>429.49</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>411.1633333333333</v>
+        <v>411.16</v>
       </c>
       <c r="C328" t="n">
         <v>427.85</v>
@@ -8360,7 +8360,7 @@
         <v>456.67</v>
       </c>
       <c r="F328" t="n">
-        <v>464.9466666666667</v>
+        <v>464.95</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -8467,13 +8467,13 @@
         <v>387.88</v>
       </c>
       <c r="D333" t="n">
-        <v>392.2600000000001</v>
+        <v>392.26</v>
       </c>
       <c r="E333" t="n">
         <v>393.33</v>
       </c>
       <c r="F333" t="n">
-        <v>393.2666666666667</v>
+        <v>393.27</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>435.8766666666667</v>
+        <v>435.88</v>
       </c>
       <c r="C335" t="n">
         <v>415.01</v>
@@ -8527,7 +8527,7 @@
         <v>425.9</v>
       </c>
       <c r="F335" t="n">
-        <v>414.7733333333333</v>
+        <v>414.77</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>450.8266666666667</v>
+        <v>450.83</v>
       </c>
       <c r="C341" t="n">
         <v>416.63</v>
@@ -8651,7 +8651,7 @@
         <v>415.56</v>
       </c>
       <c r="F341" t="n">
-        <v>403.5133333333333</v>
+        <v>403.51</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>424.87</v>
       </c>
       <c r="F342" t="n">
-        <v>423.4366666666667</v>
+        <v>423.44</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>395.05</v>
       </c>
       <c r="F347" t="n">
-        <v>395.4033333333333</v>
+        <v>395.4</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>390.85</v>
       </c>
       <c r="F348" t="n">
-        <v>389.5633333333333</v>
+        <v>389.56</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>414.6133333333333</v>
+        <v>414.61</v>
       </c>
       <c r="C349" t="n">
         <v>400.9</v>
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>423.6266666666667</v>
+        <v>423.63</v>
       </c>
       <c r="C350" t="n">
         <v>418.53</v>
@@ -8870,7 +8870,7 @@
         <v>399.78</v>
       </c>
       <c r="F350" t="n">
-        <v>414.8633333333333</v>
+        <v>414.86</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>434.4433333333333</v>
+        <v>434.44</v>
       </c>
       <c r="C351" t="n">
         <v>411.15</v>
@@ -8897,7 +8897,7 @@
         <v>410.38</v>
       </c>
       <c r="F351" t="n">
-        <v>394.0166666666667</v>
+        <v>394.02</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>455.1666666666667</v>
+        <v>455.17</v>
       </c>
       <c r="C352" t="n">
         <v>426.96</v>
@@ -8924,7 +8924,7 @@
         <v>412.89</v>
       </c>
       <c r="F352" t="n">
-        <v>398.3433333333333</v>
+        <v>398.34</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
-        <v>373.6966666666667</v>
+        <v>373.7</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>436.8033333333333</v>
+        <v>436.8</v>
       </c>
       <c r="C354" t="n">
         <v>426.49</v>
@@ -8970,7 +8970,7 @@
         <v>409.21</v>
       </c>
       <c r="F354" t="n">
-        <v>399.0166666666667</v>
+        <v>399.02</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>427.3666666666667</v>
+        <v>427.37</v>
       </c>
       <c r="C355" t="n">
         <v>424.1</v>
@@ -8997,7 +8997,7 @@
         <v>413.89</v>
       </c>
       <c r="F355" t="n">
-        <v>407.8133333333333</v>
+        <v>407.81</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -9181,13 +9181,13 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>468.6933333333333</v>
+        <v>468.69</v>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="n">
-        <v>413.7966666666667</v>
+        <v>413.8</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>372.3666666666667</v>
+        <v>372.37</v>
       </c>
       <c r="C364" t="n">
         <v>386.93</v>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>430.7966666666667</v>
+        <v>430.8</v>
       </c>
       <c r="C366" t="n">
         <v>407.83</v>
@@ -9266,7 +9266,7 @@
         <v>409.37</v>
       </c>
       <c r="F366" t="n">
-        <v>403.8633333333333</v>
+        <v>403.86</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>391.4133333333333</v>
+        <v>391.41</v>
       </c>
       <c r="C367" t="n">
         <v>398.63</v>
@@ -9293,7 +9293,7 @@
         <v>414.13</v>
       </c>
       <c r="F367" t="n">
-        <v>411.8066666666667</v>
+        <v>411.81</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>377.9033333333333</v>
+        <v>377.9</v>
       </c>
       <c r="C368" t="n">
         <v>390.58</v>
@@ -9320,7 +9320,7 @@
         <v>402.48</v>
       </c>
       <c r="F368" t="n">
-        <v>411.6766666666667</v>
+        <v>411.68</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>409.4933333333333</v>
+        <v>409.49</v>
       </c>
       <c r="C372" t="n">
         <v>399.01</v>
@@ -9428,7 +9428,7 @@
         <v>402.27</v>
       </c>
       <c r="F372" t="n">
-        <v>403.6466666666667</v>
+        <v>403.65</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>411.8066666666667</v>
+        <v>411.81</v>
       </c>
       <c r="C376" t="n">
         <v>397.41</v>
@@ -9534,7 +9534,7 @@
         <v>399.96</v>
       </c>
       <c r="F376" t="n">
-        <v>404.5333333333333</v>
+        <v>404.53</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>397.61</v>
       </c>
       <c r="F380" t="n">
-        <v>394.2733333333333</v>
+        <v>394.27</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>427.64</v>
       </c>
       <c r="F381" t="n">
-        <v>429.0833333333333</v>
+        <v>429.08</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>419.46</v>
       </c>
       <c r="F384" t="n">
-        <v>428.4833333333333</v>
+        <v>428.48</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>432.89</v>
       </c>
       <c r="F385" t="n">
-        <v>424.4633333333333</v>
+        <v>424.46</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>466.1433333333333</v>
+        <v>466.14</v>
       </c>
       <c r="C386" t="n">
         <v>442.43</v>
@@ -9784,7 +9784,7 @@
         <v>440.8</v>
       </c>
       <c r="F386" t="n">
-        <v>433.6366666666667</v>
+        <v>433.64</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>468.0666666666667</v>
+        <v>468.07</v>
       </c>
       <c r="C387" t="n">
         <v>442.77</v>
@@ -9811,7 +9811,7 @@
         <v>444.81</v>
       </c>
       <c r="F387" t="n">
-        <v>438.4033333333333</v>
+        <v>438.4</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="n">
-        <v>379.1066666666667</v>
+        <v>379.11</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>402.7833333333333</v>
+        <v>402.78</v>
       </c>
       <c r="C390" t="n">
         <v>434.56</v>
@@ -9888,7 +9888,7 @@
         <v>457.84</v>
       </c>
       <c r="F390" t="n">
-        <v>443.5566666666667</v>
+        <v>443.56</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="n">
-        <v>434.8566666666667</v>
+        <v>434.86</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>411.9266666666667</v>
+        <v>411.93</v>
       </c>
       <c r="C392" t="n">
         <v>425.88</v>
@@ -9934,7 +9934,7 @@
         <v>450.09</v>
       </c>
       <c r="F392" t="n">
-        <v>458.1433333333333</v>
+        <v>458.14</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>426.37</v>
       </c>
       <c r="F393" t="n">
-        <v>434.3933333333333</v>
+        <v>434.39</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>467.62</v>
       </c>
       <c r="F394" t="n">
-        <v>468.5366666666667</v>
+        <v>468.54</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>470.11</v>
       </c>
       <c r="F395" t="n">
-        <v>464.9833333333333</v>
+        <v>464.98</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>396.9366666666667</v>
+        <v>396.94</v>
       </c>
       <c r="C399" t="n">
         <v>418.84</v>
@@ -10115,7 +10115,7 @@
         <v>458.52</v>
       </c>
       <c r="F399" t="n">
-        <v>474.7133333333333</v>
+        <v>474.71</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>462.43</v>
       </c>
       <c r="F400" t="n">
-        <v>474.7066666666667</v>
+        <v>474.71</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>424.2066666666667</v>
+        <v>424.21</v>
       </c>
       <c r="C401" t="n">
         <v>425.34</v>
@@ -10167,7 +10167,7 @@
         <v>448.36</v>
       </c>
       <c r="F401" t="n">
-        <v>455.5133333333333</v>
+        <v>455.51</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>487.6333333333333</v>
+        <v>487.63</v>
       </c>
       <c r="C404" t="n">
         <v>461.49</v>
@@ -10246,7 +10246,7 @@
         <v>478.74</v>
       </c>
       <c r="F404" t="n">
-        <v>473.5066666666667</v>
+        <v>473.51</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>468.05</v>
       </c>
       <c r="C405" t="n">
-        <v>441.9500000000001</v>
+        <v>441.95</v>
       </c>
       <c r="D405" t="n">
         <v>447.8</v>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>402.4066666666667</v>
+        <v>402.41</v>
       </c>
       <c r="C406" t="n">
         <v>412.31</v>
@@ -10300,7 +10300,7 @@
         <v>418.42</v>
       </c>
       <c r="F406" t="n">
-        <v>424.5533333333333</v>
+        <v>424.55</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>418.0733333333333</v>
+        <v>418.07</v>
       </c>
       <c r="C407" t="n">
         <v>418.88</v>
@@ -10327,7 +10327,7 @@
         <v>418.43</v>
       </c>
       <c r="F407" t="n">
-        <v>402.6366666666667</v>
+        <v>402.64</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>399.1766666666667</v>
+        <v>399.18</v>
       </c>
       <c r="C410" t="n">
         <v>502.6</v>
@@ -10404,7 +10404,7 @@
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="n">
-        <v>464.0233333333333</v>
+        <v>464.02</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>406.1066666666667</v>
+        <v>406.11</v>
       </c>
       <c r="C412" t="n">
         <v>434.06</v>
@@ -10454,7 +10454,7 @@
         <v>418.22</v>
       </c>
       <c r="F412" t="n">
-        <v>413.2733333333333</v>
+        <v>413.27</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="n">
-        <v>453.7600000000001</v>
+        <v>453.76</v>
       </c>
       <c r="D413" t="n">
         <v>457.53</v>
@@ -10479,7 +10479,7 @@
         <v>458.98</v>
       </c>
       <c r="F413" t="n">
-        <v>432.2666666666667</v>
+        <v>432.27</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>396.5233333333333</v>
+        <v>396.52</v>
       </c>
       <c r="C415" t="n">
         <v>439.7</v>
@@ -10531,7 +10531,7 @@
         <v>442.03</v>
       </c>
       <c r="F415" t="n">
-        <v>423.7966666666667</v>
+        <v>423.8</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>421.5833333333333</v>
+        <v>421.58</v>
       </c>
       <c r="C416" t="n">
         <v>436.9</v>
@@ -10558,7 +10558,7 @@
         <v>421.12</v>
       </c>
       <c r="F416" t="n">
-        <v>409.1366666666667</v>
+        <v>409.14</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>436.9266666666667</v>
+        <v>436.93</v>
       </c>
       <c r="C417" t="n">
         <v>441.02</v>
@@ -10585,7 +10585,7 @@
         <v>454.64</v>
       </c>
       <c r="F417" t="n">
-        <v>424.4433333333333</v>
+        <v>424.44</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>0.0177</v>
       </c>
       <c r="I2" t="n">
-        <v>6.256465808554442</v>
+        <v>6.256478763544344</v>
       </c>
       <c r="J2" t="n">
         <v>416</v>
@@ -16434,19 +16434,19 @@
         <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6415056229161179</v>
+        <v>0.641503648038483</v>
       </c>
       <c r="M2" t="n">
-        <v>28.87958448998511</v>
+        <v>28.87977038126716</v>
       </c>
       <c r="N2" t="n">
-        <v>1226.483086269937</v>
+        <v>1226.498697797088</v>
       </c>
       <c r="O2" t="n">
-        <v>35.02118053792501</v>
+        <v>35.02140342415033</v>
       </c>
       <c r="P2" t="n">
-        <v>267.5531502216226</v>
+        <v>267.5528139298662</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16512,7 +16512,7 @@
         <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6787248545296143</v>
+        <v>0.6787248545296145</v>
       </c>
       <c r="M3" t="n">
         <v>22.51970234372191</v>
@@ -16521,7 +16521,7 @@
         <v>1032.402433337304</v>
       </c>
       <c r="O3" t="n">
-        <v>32.13101979921123</v>
+        <v>32.13101979921122</v>
       </c>
       <c r="P3" t="n">
         <v>250.3834791246174</v>
@@ -16581,7 +16581,7 @@
         <v>0.0272</v>
       </c>
       <c r="I4" t="n">
-        <v>5.791371992623331</v>
+        <v>5.791371992623332</v>
       </c>
       <c r="J4" t="n">
         <v>416</v>
@@ -16596,13 +16596,13 @@
         <v>17.20230373999467</v>
       </c>
       <c r="N4" t="n">
-        <v>503.4996236348647</v>
+        <v>503.4996236348646</v>
       </c>
       <c r="O4" t="n">
         <v>22.43879728583653</v>
       </c>
       <c r="P4" t="n">
-        <v>274.64618295026</v>
+        <v>274.6461829502599</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16668,7 +16668,7 @@
         <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7459037170012909</v>
+        <v>0.745903717001291</v>
       </c>
       <c r="M5" t="n">
         <v>17.22740144845387</v>
@@ -16737,7 +16737,7 @@
         <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>5.191941903760744</v>
+        <v>5.191945462673404</v>
       </c>
       <c r="J6" t="n">
         <v>416</v>
@@ -16746,19 +16746,19 @@
         <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7709715260736822</v>
+        <v>0.7709724084254138</v>
       </c>
       <c r="M6" t="n">
-        <v>16.5392095491063</v>
+        <v>16.53914596363849</v>
       </c>
       <c r="N6" t="n">
-        <v>442.2345003927242</v>
+        <v>442.2328967989985</v>
       </c>
       <c r="O6" t="n">
-        <v>21.02937232521989</v>
+        <v>21.02933419771055</v>
       </c>
       <c r="P6" t="n">
-        <v>288.8303851701953</v>
+        <v>288.8303272373858</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.98001046615816,174.46991960200936</t>
+          <t>-36.98001045903514,174.46991963838713</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-36.97728950125067,174.4687227749872</t>
+          <t>-36.977289508373396,174.4687227386106</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-36.97730094746446,174.46866431780714</t>
+          <t>-36.97730094034174,174.46866435418372</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -16989,7 +16989,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.979979609099566,174.4700771904657</t>
+          <t>-36.97997960197649,174.47007722684344</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.980007844883296,174.46993298903024</t>
+          <t>-36.98000785200632,174.46993295265247</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -17055,7 +17055,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-36.97722912859102,174.4690311026588</t>
+          <t>-36.97722912146819,174.4690311390353</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.980081218647484,174.46955826121322</t>
+          <t>-36.980081211524585,174.46955829759108</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-36.9772465082485,174.46894234391965</t>
+          <t>-36.977246515371284,174.4689423075431</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.98001008863769,174.46992153003146</t>
+          <t>-36.98001009576072,174.46992149365366</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-36.97730898187756,174.4686232850026</t>
+          <t>-36.977308974754855,174.4686233213792</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.980036835530655,174.46978493143558</t>
+          <t>-36.98003682840766,174.4697849678134</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-36.97728828326359,174.468728995383</t>
+          <t>-36.97728829038631,174.46872895900643</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-36.97727648800359,174.46878923499472</t>
+          <t>-36.97727649512633,174.46878919861814</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-36.97723714176092,174.46899017906506</t>
+          <t>-36.9772371346381,174.4689902154416</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-36.980112915524316,174.469396379726</t>
+          <t>-36.98011292264719,174.4693963433481</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-36.9772444924965,174.4689526384805</t>
+          <t>-36.9772444853737,174.46895267485704</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.98004100959901,174.46976361404245</t>
+          <t>-36.980041016722,174.46976357766465</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-36.97729378913247,174.4687008762822</t>
+          <t>-36.97729378200975,174.46870091265882</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.98007178077127,174.46960646185346</t>
+          <t>-36.980071787894175,174.46960642547563</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -17447,7 +17447,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-36.97734742293147,174.46842696036805</t>
+          <t>-36.97734741580884,174.46842699674468</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -17567,7 +17567,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.97991469605775,174.4704087005551</t>
+          <t>-36.97991470318091,174.47040866417743</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-36.977275690255425,174.46879330917065</t>
+          <t>-36.97727568313269,174.46879334554723</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -17604,7 +17604,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-36.97719301573248,174.46921553154226</t>
+          <t>-36.97719300860961,174.46921556791875</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.97996444404743,174.47015463866762</t>
+          <t>-36.97996445117053,174.4701546022899</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-36.977266330949924,174.468841107978</t>
+          <t>-36.977266323827166,174.46884114435454</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.97990860573861,174.47043980346842</t>
+          <t>-36.97990861286179,174.47043976709074</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -17724,7 +17724,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-36.977245902810715,174.4689454359256</t>
+          <t>-36.97724589568791,174.46894547230215</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.979937796458245,174.4702907277031</t>
+          <t>-36.97993780358138,174.47029069132537</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-36.977204383834454,174.46915747465908</t>
+          <t>-36.97720437671159,174.46915751103558</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-36.97716977371744,174.469334227983</t>
+          <t>-36.977169780840356,174.46933419160655</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.97988347507344,174.47056814385553</t>
+          <t>-36.97988348219666,174.4705681074779</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-36.97726370264839,174.4688545309285</t>
+          <t>-36.97726369552562,174.46885456730507</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.97988009154087,174.47058542323762</t>
+          <t>-36.979880084417644,174.47058545961525</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.97984470320301,174.47076614728863</t>
+          <t>-36.97984469607971,174.47076618366623</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-36.977223793592856,174.46905834867303</t>
+          <t>-36.977223800715684,174.46905831229654</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-36.97993680634169,174.47029578420367</t>
+          <t>-36.97993679921855,174.47029582058138</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-36.977269756999284,174.46882361085133</t>
+          <t>-36.97726976412204,174.46882357447473</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.980009013060325,174.4699270230754</t>
+          <t>-36.98000900593729,174.46992705945317</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-36.977284821614326,174.46874667440153</t>
+          <t>-36.97728482873706,174.46874663802492</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-36.977226037284424,174.4690468900694</t>
+          <t>-36.97722604440725,174.46904685369287</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -18167,7 +18167,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.98001980443781,174.46987191073956</t>
+          <t>-36.9800197973148,174.46987194711733</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-36.977233922248985,174.4690066212567</t>
+          <t>-36.977233929371806,174.46900658488016</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -18212,7 +18212,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-36.9772552621577,174.46889763714518</t>
+          <t>-36.97725525503491,174.46889767352172</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -18229,7 +18229,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.980057819801914,174.46967776240015</t>
+          <t>-36.98005781267895,174.469677798778</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -18245,7 +18245,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-36.97730294182363,174.46865413236003</t>
+          <t>-36.977302948946324,174.46865409598345</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-36.977181647602485,174.46927358840725</t>
+          <t>-36.97718164047958,174.4692736247837</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-36.97722611563554,174.46904648992765</t>
+          <t>-36.97722610851272,174.4690465263042</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-36.977189026918126,174.46923590237415</t>
+          <t>-36.97718903404102,174.4692358659977</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-36.977212404170224,174.46911651471677</t>
+          <t>-36.977212411293074,174.46911647834028</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-36.97726972850824,174.46882375635758</t>
+          <t>-36.977269721385476,174.46882379273413</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.98006634597037,174.46963421814098</t>
+          <t>-36.98006633884743,174.4696342545188</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.97999482396315,174.46999948758707</t>
+          <t>-36.9799948168401,174.46999952396484</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.98000138428911,174.46996598366727</t>
+          <t>-36.98000137716608,174.46996602004506</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-36.97726971426272,174.4688238291107</t>
+          <t>-36.977269721385476,174.46882379273413</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.97993714825247,174.470294038074</t>
+          <t>-36.97993714112933,174.4702940744517</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -18972,7 +18972,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.9800431180007,174.46975284621152</t>
+          <t>-36.98004311087773,174.46975288258935</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-36.97729738610664,174.46868250610407</t>
+          <t>-36.977297393229364,174.4686824697275</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.98011663366052,174.4693773904726</t>
+          <t>-36.980116640783386,174.46937735409472</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-36.97727522015378,174.46879571002427</t>
+          <t>-36.97727521303102,174.46879574640084</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.97997472266736,174.47010214559677</t>
+          <t>-36.97997472979045,174.47010210921903</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.979993563182816,174.47000592645045</t>
+          <t>-36.97999355605977,174.4700059628282</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -19133,7 +19133,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.97995980690787,174.4701783205679</t>
+          <t>-36.97995981403098,174.4701782841902</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.97992958347065,174.47033267118945</t>
+          <t>-36.979929576347494,174.47033270756714</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-36.977285270346776,174.468744382677</t>
+          <t>-36.97728527746951,174.4687443463004</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-36.97725569664747,174.4688954181756</t>
+          <t>-36.97725570377026,174.46889538179906</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.980010316574585,174.46992036594264</t>
+          <t>-36.98001030945156,174.4699204023204</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -19278,7 +19278,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-36.977274500755705,174.4687993840578</t>
+          <t>-36.97727450787847,174.46879934768123</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-36.98003557476182,174.46979137030644</t>
+          <t>-36.98003556763882,174.4697914066842</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -19315,7 +19315,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-36.97726118830974,174.46886737185315</t>
+          <t>-36.97726119543252,174.46886733547663</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-36.97729793455593,174.46867970510647</t>
+          <t>-36.9772979274332,174.46867974148304</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-36.977268467779346,174.46883019500936</t>
+          <t>-36.97726846065659,174.46883023138594</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-36.977277107682845,174.46878607023297</t>
+          <t>-36.9772771148056,174.46878603385642</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-36.97728059070613,174.46876828208852</t>
+          <t>-36.97728059782888,174.46876824571194</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -19518,7 +19518,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.9799659612672,174.47014689021114</t>
+          <t>-36.9799659683903,174.4701468538334</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -19534,7 +19534,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-36.97731519999084,174.46859152822478</t>
+          <t>-36.977315192868154,174.46859156460138</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.980094987227744,174.46948794282278</t>
+          <t>-36.98009499435063,174.46948790644493</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-36.97725763404399,174.46888552375364</t>
+          <t>-36.97725762692121,174.46888556013022</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-36.980133664395474,174.4692904109365</t>
+          <t>-36.98013367151831,174.46929037455862</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-36.97726496337859,174.46884809227757</t>
+          <t>-36.977264956255816,174.46884812865412</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -19625,7 +19625,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.98007874699423,174.46957088432552</t>
+          <t>-36.980078754117145,174.46957084794767</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -19645,7 +19645,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-36.97727502783946,174.46879669219166</t>
+          <t>-36.977275020716704,174.4687967285682</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -19662,7 +19662,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.97996129563674,174.47017071762332</t>
+          <t>-36.979961288513636,174.470170754001</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-36.97732905360367,174.46852077570483</t>
+          <t>-36.97732906072635,174.4685207393282</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.979931934110404,174.47032066654992</t>
+          <t>-36.979931926987256,174.47032070292764</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-36.977331489555965,174.46850833489904</t>
+          <t>-36.977331496678644,174.4685082985224</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.97996540566566,174.4701497276741</t>
+          <t>-36.97996541278875,174.47014969129637</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19761,7 +19761,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.979916505343986,174.4703994606243</t>
+          <t>-36.97991649822082,174.47039949700198</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-36.977310655711854,174.4686147365005</t>
+          <t>-36.97731066283455,174.46861470012394</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-36.97726806178182,174.46883226847345</t>
+          <t>-36.97726805465907,174.46883230485</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-36.97728039126929,174.46876930063263</t>
+          <t>-36.97728038414654,174.46876933700918</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-36.97731216572355,174.46860702466</t>
+          <t>-36.97731215860085,174.4686070610366</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -19885,7 +19885,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.9799061055,174.47045257203132</t>
+          <t>-36.97990611262318,174.47045253565366</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -19910,7 +19910,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.979989097026014,174.47002873530363</t>
+          <t>-36.97998908990295,174.4700287716814</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-36.97729896734985,174.46867443050044</t>
+          <t>-36.97729897447257,174.46867439412387</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.980042954172234,174.4697536829011</t>
+          <t>-36.980042961295204,174.46975364652332</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19963,7 +19963,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>-36.977281887045415,174.4687616615517</t>
+          <t>-36.97728187992267,174.46876169792827</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -19980,7 +19980,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.98006884612203,174.46962144952167</t>
+          <t>-36.9800688389991,174.46962148589952</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-36.97727781283501,174.46878246895233</t>
+          <t>-36.97727781995775,174.46878243257578</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>-36.977315990609455,174.46858749042102</t>
+          <t>-36.97731598348676,174.46858752679765</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -20100,7 +20100,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.980155780751566,174.4691774575257</t>
+          <t>-36.980155787874374,174.46917742114778</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>-36.97730705874803,174.46863310668536</t>
+          <t>-36.97730705162533,174.46863314306196</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.98018827486383,174.469011501375</t>
+          <t>-36.98018826774108,174.46901153775295</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-36.97727041941601,174.46882022783078</t>
+          <t>-36.97727042653877,174.4688201914542</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -20174,7 +20174,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.980189393135866,174.46900579003616</t>
+          <t>-36.98018940025862,174.4690057536582</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>-36.97734458099683,174.46844147464776</t>
+          <t>-36.97734457387419,174.4684415110244</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-36.977298575600464,174.46867643121308</t>
+          <t>-36.97729856847774,174.4686764675897</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -20269,7 +20269,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.98019646602213,174.46896966672344</t>
+          <t>-36.98019647314487,174.4689696303455</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -20289,7 +20289,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-36.97728395976297,174.4687510759676</t>
+          <t>-36.97728395264023,174.46875111234417</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-36.97725011238237,174.4689239373889</t>
+          <t>-36.97725010525958,174.46892397376544</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-36.97733505801008,174.46849011020836</t>
+          <t>-36.977335065132735,174.4684900738317</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -20467,7 +20467,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.98003151465646,174.46981210565164</t>
+          <t>-36.98003150753348,174.46981214202944</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -20483,7 +20483,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>-36.97738762294204,174.46822165048513</t>
+          <t>-36.97738763006463,174.46822161410847</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -20500,7 +20500,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.980055540455965,174.46968940330314</t>
+          <t>-36.980055547578914,174.46968936692534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.98012100709658,174.46935505445174</t>
+          <t>-36.98012099997372,174.46935509082962</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -20541,7 +20541,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-36.97727114593748,174.4688165174211</t>
+          <t>-36.97727115306024,174.46881648104454</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -20566,7 +20566,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>-36.9772624276723,174.46886104233235</t>
+          <t>-36.97726243479508,174.4688610059558</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>-36.97730151015874,174.46866144405604</t>
+          <t>-36.97730151728144,174.46866140767943</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>-36.97727896672014,174.4687765759475</t>
+          <t>-36.977278973842886,174.46877653957094</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>-36.97724655098527,174.4689421256604</t>
+          <t>-36.97724655810808,174.46894208928384</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.98019763415133,174.4689637007376</t>
+          <t>-36.9801976270286,174.46896373711556</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.980198303688674,174.468960281209</t>
+          <t>-36.98019831081142,174.46896024483107</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -20869,7 +20869,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-36.977315221358914,174.46859141909496</t>
+          <t>-36.97731521423623,174.46859145547157</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -20981,7 +20981,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-36.977286103706945,174.4687401266171</t>
+          <t>-36.97728611082969,174.4687400902405</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-36.97734317783548,174.4684486408456</t>
+          <t>-36.97734318495812,174.46844860446896</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-36.979987964459234,174.47003451936644</t>
+          <t>-36.97998795733618,174.47003455574418</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -21113,7 +21113,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>-36.9772601412618,174.4688727192068</t>
+          <t>-36.97726014838458,174.46887268283027</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -21130,7 +21130,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.980068361762264,174.46962392321439</t>
+          <t>-36.98006836888521,174.46962388683656</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-36.977345051091405,174.46843907378954</t>
+          <t>-36.97734504396877,174.4684391101662</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.980153209419,174.46919058995476</t>
+          <t>-36.9801532022962,174.46919062633268</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -21187,7 +21187,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-36.97733405371489,174.46849523931309</t>
+          <t>-36.977334060837556,174.46849520293645</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.98016317421504,174.46913969723965</t>
+          <t>-36.98016318133784,174.4691396608617</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-36.977342465570665,174.46845227850937</t>
+          <t>-36.977342458448014,174.468452314886</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.98018872359723,174.4690092095639</t>
+          <t>-36.98018871647448,174.46900924594186</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -21261,7 +21261,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-36.977315549002675,174.46858974577088</t>
+          <t>-36.97731555612536,174.46858970939428</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.98014773910007,174.46921852819412</t>
+          <t>-36.980147731977254,174.46921856457203</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>-36.97731537805811,174.46859061880954</t>
+          <t>-36.9773153851808,174.46859058243294</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.98020462867495,174.46892797757437</t>
+          <t>-36.98020463579766,174.46892794119637</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -21331,7 +21331,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-36.97732041379758,174.46856490054435</t>
+          <t>-36.9773204066749,174.46856493692096</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.980154434541625,174.46918433295266</t>
+          <t>-36.98015444166443,174.46918429657472</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-36.977325819910625,174.46853729069133</t>
+          <t>-36.97732581278796,174.46853732706793</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -21422,7 +21422,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.98013955497799,174.4692603264116</t>
+          <t>-36.98013954785515,174.4692603627895</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-36.977366041477495,174.46833187180067</t>
+          <t>-36.97736604860011,174.468331835424</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.980064615095344,174.46964305795382</t>
+          <t>-36.98006460797239,174.46964309433167</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-36.977327130482536,174.468530597393</t>
+          <t>-36.9773271376052,174.4685305610164</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -21690,7 +21690,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-36.9772496422781,174.46892633824083</t>
+          <t>-36.977249635155324,174.4689263746174</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.980134433661824,174.46928648212338</t>
+          <t>-36.98013444078465,174.46928644574547</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>-36.977373876344295,174.46829185746927</t>
+          <t>-36.977373869221694,174.46829189384593</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-36.97735757980638,174.46837508726887</t>
+          <t>-36.97735758692901,174.4683750508922</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.980075320867485,174.46958838206763</t>
+          <t>-36.98007531374456,174.46958841844545</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -22012,7 +22012,7 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-36.97730742912858,174.46863121510205</t>
+          <t>-36.9773074362513,174.46863117872547</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -22029,7 +22029,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.98017752661752,174.4690663956991</t>
+          <t>-36.980177519494745,174.469066432077</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -22062,7 +22062,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.9801169256979,174.46937589897945</t>
+          <t>-36.980116918575035,174.4693759353573</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.98015523941851,174.46918022224767</t>
+          <t>-36.980155232295715,174.4691802586256</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -22111,7 +22111,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-36.97737826386388,174.46826944943993</t>
+          <t>-36.97737827098648,174.46826941306327</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -22235,7 +22235,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.98024118948957,174.4687412493595</t>
+          <t>-36.98024119661225,174.46874121298148</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -22268,7 +22268,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-36.97733265767299,174.4685023691322</t>
+          <t>-36.97733265055033,174.46850240550884</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -22293,7 +22293,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>-36.977353042691824,174.46839825919506</t>
+          <t>-36.97735303556919,174.46839829557172</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -22364,7 +22364,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>-36.97739058593391,174.46820651778455</t>
+          <t>-36.977390578811345,174.46820655416124</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-36.98030868342436,174.4683965310464</t>
+          <t>-36.980308676301796,174.4683965674245</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -22389,7 +22389,7 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>-36.97745950344742,174.46785453664066</t>
+          <t>-36.977459510569886,174.4678545002639</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.98018576053145,174.4690243427922</t>
+          <t>-36.98018576765422,174.46902430641427</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>-36.97740039370828,174.46815642708174</t>
+          <t>-36.977400386585714,174.46815646345846</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>-36.977349032648064,174.4684187392467</t>
+          <t>-36.977349039770715,174.46841870287005</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -22534,7 +22534,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-36.97731774279077,174.46857854177455</t>
+          <t>-36.97731773566808,174.46857857815118</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.980134554750016,174.46928586369907</t>
+          <t>-36.98013454762719,174.46928590007695</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>-36.977381511765294,174.4682528616762</t>
+          <t>-36.977381518887896,174.46825282529952</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -22654,7 +22654,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-36.97739285803454,174.46819491362152</t>
+          <t>-36.977392865157114,174.46819487724483</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-36.98008521460286,174.46953785324027</t>
+          <t>-36.98008520747994,174.46953788961812</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-36.97740832823232,174.46811590343864</t>
+          <t>-36.97740833535487,174.46811586706195</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -22803,7 +22803,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-36.97740436809457,174.4681361288846</t>
+          <t>-36.97740436097201,174.4681361652613</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>-36.97727524152204,174.46879560089457</t>
+          <t>-36.977275234399286,174.46879563727114</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-36.97734641863899,174.46843208947453</t>
+          <t>-36.977346411516336,174.4684321258512</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.980148643697525,174.46921390819912</t>
+          <t>-36.98014865082034,174.4692138718212</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -22982,7 +22982,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>-36.97734372627931,174.46844583984443</t>
+          <t>-36.97734371915667,174.46844587622107</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-36.980182697745114,174.4690399853106</t>
+          <t>-36.98018269062235,174.46904002168853</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.98023131745717,174.46879166927008</t>
+          <t>-36.98023132457987,174.46879163289208</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23085,7 +23085,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-36.97731925992283,174.46857079355593</t>
+          <t>-36.977319252800136,174.46857082993256</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -23102,7 +23102,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.98028131131988,174.46853633193388</t>
+          <t>-36.98028130419728,174.46853636831193</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23122,7 +23122,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>-36.977358477257084,174.4683705038106</t>
+          <t>-36.9773584843797,174.46837046743394</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -23139,7 +23139,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.980167041889196,174.4691199440234</t>
+          <t>-36.98016704901198,174.46911990764545</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -23159,7 +23159,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>-36.97736291464967,174.46834784115413</t>
+          <t>-36.97736290752704,174.4683478775308</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.980193410365644,174.46898527286848</t>
+          <t>-36.98019341748839,174.4689852364905</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-36.98007685941951,174.4695805244539</t>
+          <t>-36.98007685229659,174.46958056083173</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23506,7 +23506,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.98006651692094,174.46963334507302</t>
+          <t>-36.98006650979801,174.46963338145085</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-36.97738048611247,174.46825809991753</t>
+          <t>-36.97738049323507,174.46825806354087</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-36.977367850620645,174.46832263212855</t>
+          <t>-36.977367843498044,174.4683226685052</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-36.97732136111429,174.46856006245446</t>
+          <t>-36.97732136823697,174.46856002607785</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.98013021694103,174.46930801783878</t>
+          <t>-36.98013020981819,174.46930805421667</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-36.97738296477309,174.46824544083404</t>
+          <t>-36.97738297189567,174.46824540445738</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -23766,7 +23766,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-36.97738605597443,174.46822965335514</t>
+          <t>-36.977386048851834,174.4682296897318</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -23804,7 +23804,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.980129020303345,174.46931412932514</t>
+          <t>-36.9801290131805,174.46931416570303</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.98005013412777,174.46971701406696</t>
+          <t>-36.98005014125074,174.46971697768916</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.98013161301794,174.4693008877711</t>
+          <t>-36.98013162014078,174.4693008513932</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24014,7 +24014,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>-36.977370222448975,174.46831051869944</t>
+          <t>-36.97737021532637,174.4683105550761</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-36.97737413988048,174.46829051153253</t>
+          <t>-36.97737414700309,174.46829047515587</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-36.97741995221417,174.46805653664921</t>
+          <t>-36.977419959336686,174.4680565002725</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -24097,7 +24097,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.98010951079159,174.46941376835096</t>
+          <t>-36.980109503668714,174.46941380472882</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-36.97739715294273,174.46817297847744</t>
+          <t>-36.977397160065294,174.46817294210075</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -24142,7 +24142,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-36.977369225284065,174.4683156114325</t>
+          <t>-36.977369232406666,174.46831557505584</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -24229,7 +24229,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-36.980319908575545,174.46833919919217</t>
+          <t>-36.9803199156981,174.4683391628141</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -24249,7 +24249,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-36.97740558605097,174.4681299084689</t>
+          <t>-36.977405578928405,174.4681299448456</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -24266,7 +24266,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-36.98015078054122,174.4692029948246</t>
+          <t>-36.98015078766404,174.4692029584467</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-36.97741052197623,174.46810469941366</t>
+          <t>-36.977410514853695,174.46810473579035</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-36.980147682117554,174.46921881921745</t>
+          <t>-36.980147689240376,174.46921878283953</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>-36.97739928258893,174.46816210184613</t>
+          <t>-36.977399275466354,174.46816213822282</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -24402,7 +24402,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-36.98027372573522,174.4685750745499</t>
+          <t>-36.9802737186126,174.46857511092796</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -24418,7 +24418,7 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>-36.9774763836651,174.46776832371205</t>
+          <t>-36.97747639078754,174.4677682873353</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -24513,7 +24513,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>-36.97745135533708,174.46789615164334</t>
+          <t>-36.977451348214615,174.4678961880201</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -24583,7 +24583,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>-36.97746156896261,174.4678439873815</t>
+          <t>-36.97746156184014,174.46784402375826</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-36.9803242889412,174.46831682666812</t>
+          <t>-36.98032429606374,174.46831679029003</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -24682,7 +24682,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>-36.97739864868095,174.46816533937192</t>
+          <t>-36.97739865580352,174.46816530299523</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>-36.97738302887637,174.46824511344394</t>
+          <t>-36.97738303599896,174.46824507706725</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-36.98029116187739,174.468486021088</t>
+          <t>-36.9802911547548,174.46848605746607</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -24753,7 +24753,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-36.98030360503163,174.4684224686117</t>
+          <t>-36.98030361215421,174.4684224322336</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-36.977417701494474,174.46806803169082</t>
+          <t>-36.97741769437194,174.46806806806754</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -24815,7 +24815,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-36.980200369282,174.46894973159922</t>
+          <t>-36.980200362159266,174.4689497679772</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>-36.9774228795726,174.46804158581875</t>
+          <t>-36.97742288669513,174.46804154944203</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -24852,7 +24852,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-36.98025238631458,174.468684063124</t>
+          <t>-36.98025239343722,174.46868402674596</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -24872,7 +24872,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>-36.977338790282474,174.4684710488533</t>
+          <t>-36.97733878315983,174.46847108522994</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-36.98016996223031,174.46910502907048</t>
+          <t>-36.98016995510755,174.46910506544842</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>-36.97740975986403,174.46810859172112</t>
+          <t>-36.97740976698657,174.4681085553444</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -25000,7 +25000,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-36.980273234274385,174.46857758463463</t>
+          <t>-36.98027322715176,174.46857762101268</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-36.98026336231064,174.46862800458973</t>
+          <t>-36.98026335518801,174.46862804096776</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-36.98017829587654,174.46906246688118</t>
+          <t>-36.98017828875377,174.46906250325912</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -25078,7 +25078,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>-36.9774455718794,174.46792568955914</t>
+          <t>-36.97744557900189,174.4679256531824</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-36.977373790873095,174.4682922939893</t>
+          <t>-36.97737378375049,174.46829233036598</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -25247,7 +25247,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>-36.977448577568914,174.46791033857394</t>
+          <t>-36.97744857044642,174.46791037495066</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -25297,7 +25297,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-36.980341439991385,174.46822922820638</t>
+          <t>-36.98034143286887,174.4682292645845</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>-36.97742834966809,174.46801364849728</t>
+          <t>-36.977428356790604,174.46801361212053</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -25359,7 +25359,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-36.980219992372305,174.46884951027613</t>
+          <t>-36.98021999949501,174.46884947389816</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -25384,7 +25384,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-36.98024729361447,174.46871007340508</t>
+          <t>-36.98024728649181,174.46871010978307</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -25404,7 +25404,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>-36.97745176844092,174.46789404179202</t>
+          <t>-36.97745177556341,174.46789400541527</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-36.98022338277799,174.4688321943542</t>
+          <t>-36.980223375655285,174.4688322307322</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>-36.97744157616117,174.46794609690954</t>
+          <t>-36.97744158328368,174.4679460605328</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -25470,7 +25470,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>-36.97739886235781,174.4681642480711</t>
+          <t>-36.97739886948037,174.46816421169441</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-36.98014694846751,174.46922256614246</t>
+          <t>-36.980146941344685,174.46922260252038</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>-36.97735297858814,174.46839858658487</t>
+          <t>-36.97735297146549,174.46839862296153</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -25669,7 +25669,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-36.980331382987984,174.46828059408682</t>
+          <t>-36.980331390110514,174.46828055770868</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>-36.97740851341854,174.46811495764433</t>
+          <t>-36.977408506296,174.46811499402105</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-36.98030358366391,174.4684225777459</t>
+          <t>-36.98030359078649,174.46842254136783</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -25726,7 +25726,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>-36.977416718584905,174.46807305167712</t>
+          <t>-36.97741671146237,174.46807308805384</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -25743,7 +25743,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-36.98028206631637,174.46853247586085</t>
+          <t>-36.980282073438964,174.46853243948283</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-36.980222399845495,174.4688372145166</t>
+          <t>-36.98022239272281,174.46883725089458</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>-36.97740202477403,174.4681480968183</t>
+          <t>-36.97740203189658,174.46814806044162</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -25850,7 +25850,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-36.98018043270646,174.46905155349774</t>
+          <t>-36.980180425583704,174.4690515898757</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>-36.977441640263635,174.4679457695189</t>
+          <t>-36.97744164738613,174.4679457331422</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-36.98021346797116,174.4688828325079</t>
+          <t>-36.98021346084845,174.46888286888588</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -25957,7 +25957,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>-36.97744689666222,174.46791892348526</t>
+          <t>-36.9774469037847,174.4679188871085</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -25974,7 +25974,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-36.98020625265651,174.46891968339696</t>
+          <t>-36.98020625977923,174.468919647019</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -26205,7 +26205,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>-36.977469325319994,174.4678043730892</t>
+          <t>-36.97746931819754,174.46780440946597</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-36.98017737703936,174.46906715963587</t>
+          <t>-36.98017736991658,174.4690671960138</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>-36.97748624823626,174.46771794187654</t>
+          <t>-36.97748624111383,174.46771797825335</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-36.97743116306101,174.46799927969096</t>
+          <t>-36.977431155938504,174.46799931606768</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-36.9801158857598,174.46938121015015</t>
+          <t>-36.980115892882665,174.4693811737723</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -26470,7 +26470,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-36.980160880675626,174.4691514109323</t>
+          <t>-36.98016087355283,174.46915144731022</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>-36.97745644790773,174.46787014226774</t>
+          <t>-36.9774564550302,174.467870105891</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -26507,7 +26507,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-36.98014614358916,174.4692266768465</t>
+          <t>-36.98014615071198,174.46922664046858</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -26527,7 +26527,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>-36.977477402174145,174.46776312183366</t>
+          <t>-36.97747739505171,174.46776315821043</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -26544,7 +26544,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-36.980211658801515,174.46889207251434</t>
+          <t>-36.98021166592422,174.46889203613637</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>-36.97748753027283,174.46771139405578</t>
+          <t>-36.9774875231504,174.4677114304326</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -26618,7 +26618,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-36.98030336998667,174.46842366908797</t>
+          <t>-36.980303377109244,174.46842363270991</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>-36.97748494483204,174.46772459882746</t>
+          <t>-36.97748493770961,174.46772463520423</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -26770,7 +26770,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>-36.97744005906939,174.4679538451543</t>
+          <t>-36.977440066191875,174.46795380877757</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -26791,7 +26791,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>-36.97750313547836,174.46763169250764</t>
+          <t>-36.97750314260075,174.46763165613083</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-36.98038604096999,174.46800142835838</t>
+          <t>-36.98038604809243,174.4680013919802</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>-36.97747528680896,174.4677739257348</t>
+          <t>-36.97747527968651,174.46777396211158</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-36.98037526469516,174.4680564684942</t>
+          <t>-36.9803752575727,174.46805650487235</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>-36.977455977824526,174.46787254313335</t>
+          <t>-36.977455984947,174.4678725067566</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-36.98038406805176,174.4680115051062</t>
+          <t>-36.9803840609293,174.46801154148434</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -26923,7 +26923,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>-36.97749988766267,174.46764828032693</t>
+          <t>-36.97749989478507,174.46764824395015</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>-36.97748685364246,174.46771484985013</t>
+          <t>-36.977486860764884,174.46771481347332</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -26973,7 +26973,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-36.98027037810234,174.46859217222766</t>
+          <t>-36.98027038522496,174.46859213584963</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>-36.97749573529849,174.4676694879973</t>
+          <t>-36.97749572817607,174.46766952437412</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -27043,7 +27043,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-36.980251738153065,174.46868737352358</t>
+          <t>-36.980251731030414,174.46868740990163</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -27063,7 +27063,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-36.97757148864717,174.46728258404454</t>
+          <t>-36.97757149576946,174.46728254766768</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -27204,7 +27204,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>-36.97741832827728,174.46806483054007</t>
+          <t>-36.97741833539982,174.46806479416335</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-36.980304545211354,174.46841766670647</t>
+          <t>-36.980304552333926,174.4684176303284</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -27278,7 +27278,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>-36.97746428262081,174.4678301278367</t>
+          <t>-36.97746427549835,174.46783016421344</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-36.98033648984018,174.46825451098925</t>
+          <t>-36.98033649696269,174.46825447461114</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -27424,7 +27424,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-36.977440222886834,174.4679530084894</t>
+          <t>-36.977440215764325,174.4679530448661</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-36.97748279385815,174.46773558461473</t>
+          <t>-36.977482800980574,174.46773554823798</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -27606,7 +27606,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>-36.97742289381766,174.46804151306532</t>
+          <t>-36.97742288669513,174.46804154944203</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>-36.97741041513809,174.46810524506424</t>
+          <t>-36.97741040801553,174.46810528144096</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -27656,7 +27656,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-36.980259110094636,174.4686497222718</t>
+          <t>-36.980259102971985,174.4686497586498</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-36.98027836968149,174.46855135606668</t>
+          <t>-36.98027837680411,174.46855131968866</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>-36.97746447492724,174.46782914566415</t>
+          <t>-36.97746446780477,174.46782918204093</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -27726,7 +27726,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-36.980301482503975,174.46843330927607</t>
+          <t>-36.980301475381395,174.46843334565412</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -27746,7 +27746,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>-36.977419930846565,174.46805664577937</t>
+          <t>-36.9774199379691,174.46805660940265</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-36.980345763356496,174.4682071466939</t>
+          <t>-36.980345770479005,174.46820711031583</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -27783,7 +27783,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>-36.97742917587987,174.4680094287973</t>
+          <t>-36.97742916875735,174.46800946517405</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -27804,7 +27804,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>-36.97737651170559,174.46827839810132</t>
+          <t>-36.97737651882818,174.46827836172466</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -27821,7 +27821,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-36.9803065252862,174.46840755360265</t>
+          <t>-36.98030651816363,174.46840758998073</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -27841,7 +27841,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>-36.97743061462759,174.46800208069885</t>
+          <t>-36.97743062175011,174.46800204432213</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-36.98028636124678,174.46851053989673</t>
+          <t>-36.98028636836939,174.4685105035187</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -27878,7 +27878,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-36.97744941089954,174.46790608249486</t>
+          <t>-36.97744940377706,174.4679061188716</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -28114,7 +28114,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-36.98037466640819,174.46805952425805</t>
+          <t>-36.98037465928573,174.4680595606362</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -28122,7 +28122,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>-36.97746219573944,174.4678407862269</t>
+          <t>-36.97746220286191,174.46784074985013</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-36.9801688368308,174.4691107767842</t>
+          <t>-36.98016884395357,174.46911074040625</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -28209,7 +28209,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-36.98029369039743,174.46847310687735</t>
+          <t>-36.98029369752001,174.4684730704993</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -28229,7 +28229,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>-36.97744097074902,174.46794918893215</t>
+          <t>-36.97744096362651,174.46794922530887</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-36.980209536231506,174.46890291315125</t>
+          <t>-36.980209529108784,174.4689029495292</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>-36.97745794362671,174.46786250314977</t>
+          <t>-36.97745795074918,174.46786246677303</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28283,7 +28283,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-36.9801806677577,174.46905035302552</t>
+          <t>-36.980180660634936,174.46905038940346</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -28303,7 +28303,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>-36.97745766585036,174.46786392184313</t>
+          <t>-36.97745767297285,174.4678638854664</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-36.980248169701746,174.46870559890942</t>
+          <t>-36.98024816257908,174.46870563528742</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -28451,7 +28451,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>-36.977440507786724,174.46795155341997</t>
+          <t>-36.97744051490922,174.46795151704325</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-36.98025311282518,174.4686803525661</t>
+          <t>-36.98025311994783,174.46868031618808</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>-36.97744240237058,174.46794187720803</t>
+          <t>-36.97744239524808,174.46794191358478</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -28731,7 +28731,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>-36.97742047928127,174.4680538447723</t>
+          <t>-36.977420472158734,174.46805388114902</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>-36.97749485924176,174.46767396234253</t>
+          <t>-36.97749485211934,174.46767399871933</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>-36.97749357720721,174.46768051016466</t>
+          <t>-36.9774935700848,174.46768054654146</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -28888,7 +28888,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>-36.977484987566605,174.46772438056678</t>
+          <t>-36.97748498044418,174.46772441694355</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -28905,7 +28905,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-36.980369217719606,174.46808735353355</t>
+          <t>-36.98036921059714,174.4680873899117</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>-36.977504588447786,174.4676242716406</t>
+          <t>-36.977504595570196,174.4676242352638</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-36.980373327384655,174.46806636334838</t>
+          <t>-36.98037333450712,174.46806632697024</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>-36.977514773465785,174.4675722528095</t>
+          <t>-36.9775147663434,174.4675722891863</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -28991,7 +28991,7 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>-36.977388071664485,174.4682193587541</t>
+          <t>-36.97738807878707,174.46821932237745</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -29045,7 +29045,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-36.980233831764686,174.46877882783673</t>
+          <t>-36.98023382464201,174.46877886421473</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -29065,7 +29065,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>-36.97752578465571,174.46751601425262</t>
+          <t>-36.97752579177805,174.46751597787576</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -29086,7 +29086,7 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>-36.97750719524475,174.46761095773138</t>
+          <t>-36.977507202367136,174.46761092135455</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-36.980253369240664,174.46867904295743</t>
+          <t>-36.98025337636331,174.4686790065794</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>-36.977556952020855,174.46735682921508</t>
+          <t>-36.97755694489853,174.4673568655919</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>-36.97750620523187,174.46761601410685</t>
+          <t>-36.97750619810947,174.46761605048366</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -29189,7 +29189,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>-36.97757915935213,174.46724340615472</t>
+          <t>-36.9775791664744,174.46724336977786</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -29222,7 +29222,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>-36.97757156699242,174.46728218389902</t>
+          <t>-36.97757155987013,174.46728222027588</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -29346,7 +29346,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-36.9802213385631,174.46884263483673</t>
+          <t>-36.9802213456858,174.46884259845876</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>-36.977592356923246,174.46717599979382</t>
+          <t>-36.977592349800986,174.4671760361707</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>-36.97759234267872,174.4671760725476</t>
+          <t>-36.977592349800986,174.4671760361707</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -29416,7 +29416,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-36.98027960901605,174.4685450262869</t>
+          <t>-36.98027961613867,174.46854498990888</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>-36.977551332509215,174.46738553054934</t>
+          <t>-36.97755132538689,174.4673855669262</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -29523,7 +29523,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-36.980415136073844,174.46785282354773</t>
+          <t>-36.98041512895144,174.46785285992593</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -29543,7 +29543,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>-36.977589778663535,174.46718916822675</t>
+          <t>-36.9775897857858,174.46718913184986</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -29597,7 +29597,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-36.98023302690153,174.46878293855062</t>
+          <t>-36.98023303402422,174.46878290217262</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>-36.97748517987217,174.4677233983937</t>
+          <t>-36.977485172749745,174.4677234347705</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-36.9802665033923,174.46861196187822</t>
+          <t>-36.98026649626967,174.46861199825625</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -29654,7 +29654,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>-36.97743834966959,174.4679625755705</t>
+          <t>-36.97743835679209,174.46796253919382</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -29745,7 +29745,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-36.98022612501605,174.46881818882792</t>
+          <t>-36.98022613213874,174.46881815244993</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -29757,7 +29757,7 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
-          <t>-36.97756951577113,174.4672926604364</t>
+          <t>-36.97756950864883,174.4672926968133</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -29803,7 +29803,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-36.98024093307342,174.46874255896776</t>
+          <t>-36.98024094019609,174.46874252258974</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -29823,7 +29823,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>-36.97746107751252,174.4678464973777</t>
+          <t>-36.977461070390056,174.46784653375448</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>-36.97750166114126,174.46763922250472</t>
+          <t>-36.97750166826366,174.46763918612794</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -29906,7 +29906,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-36.98022045534801,174.46884714570706</t>
+          <t>-36.98022044822532,174.46884718208503</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>-36.9774835630807,174.46773165592268</t>
+          <t>-36.977483570203134,174.4677316195459</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>-36.98027400351742,174.46857365580638</t>
+          <t>-36.9802739963948,174.4685736921844</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -29963,7 +29963,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>-36.97745223852458,174.46789164092672</t>
+          <t>-36.977452245647044,174.46789160454995</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -29980,7 +29980,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>-36.98030678882128,174.46840620761395</t>
+          <t>-36.980306795943854,174.4684061712359</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -30000,7 +30000,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>-36.97748494483204,174.46772459882746</t>
+          <t>-36.97748493770961,174.46772463520423</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">

--- a/data/nzd0187/nzd0187.xlsx
+++ b/data/nzd0187/nzd0187.xlsx
@@ -16416,13 +16416,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0147</v>
+        <v>0.0238</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0177</v>
+        <v>0.0346</v>
       </c>
       <c r="I2" t="n">
         <v>6.256478763544344</v>
@@ -16497,10 +16497,10 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0196</v>
+        <v>0.0232</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0339</v>
+        <v>0.0287</v>
       </c>
       <c r="I3" t="n">
         <v>6.817990289402015</v>
@@ -16572,13 +16572,13 @@
         <v>0.50000000000106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0199</v>
+        <v>0.0275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0272</v>
+        <v>0.0361</v>
       </c>
       <c r="I4" t="n">
         <v>5.791371992623332</v>
@@ -16650,13 +16650,13 @@
         <v>0.24999999999947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0221</v>
+        <v>0.0249</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0304</v>
+        <v>0.0333</v>
       </c>
       <c r="I5" t="n">
         <v>5.18456732744117</v>
@@ -16728,13 +16728,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0248</v>
+        <v>0.0293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0327</v>
+        <v>0.0433</v>
       </c>
       <c r="I6" t="n">
         <v>5.191945462673404</v>
